--- a/submission/20372701d5e2_TGS.xlsx
+++ b/submission/20372701d5e2_TGS.xlsx
@@ -404,7 +404,7 @@
         <v>13105.5</v>
       </c>
       <c r="B3">
-        <v>147.4022064208984</v>
+        <v>144.3435516357422</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>13106</v>
       </c>
       <c r="B4">
-        <v>147.4022064208984</v>
+        <v>146.0826873779297</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>13106.5</v>
       </c>
       <c r="B5">
-        <v>146.9398956298828</v>
+        <v>150.6400909423828</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>13107</v>
       </c>
       <c r="B6">
-        <v>148.2708282470703</v>
+        <v>152.1280364990234</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>13107.5</v>
       </c>
       <c r="B7">
-        <v>150.1856231689453</v>
+        <v>148.2823181152344</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>13234</v>
       </c>
       <c r="B260">
-        <v>151.2978515625</v>
+        <v>139.2851867675781</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>13234.5</v>
       </c>
       <c r="B261">
-        <v>149.7882080078125</v>
+        <v>141.6717987060547</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>13235</v>
       </c>
       <c r="B262">
-        <v>150.3010864257812</v>
+        <v>141.654296875</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>13235.5</v>
       </c>
       <c r="B263">
-        <v>151.1507415771484</v>
+        <v>142.0825958251953</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>13236</v>
       </c>
       <c r="B264">
-        <v>149.7882080078125</v>
+        <v>141.6717987060547</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>13236.5</v>
       </c>
       <c r="B265">
-        <v>149.7882080078125</v>
+        <v>141.6717987060547</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>13237</v>
       </c>
       <c r="B266">
-        <v>149.7882080078125</v>
+        <v>141.6717987060547</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>13237.5</v>
       </c>
       <c r="B267">
-        <v>149.7882080078125</v>
+        <v>141.6717987060547</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>13238</v>
       </c>
       <c r="B268">
-        <v>153.6594390869141</v>
+        <v>144.1909027099609</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>13238.5</v>
       </c>
       <c r="B269">
-        <v>151.4248199462891</v>
+        <v>142.2353515625</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>13239</v>
       </c>
       <c r="B270">
-        <v>150.2095642089844</v>
+        <v>141.6717987060547</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5300,7 +5300,7 @@
         <v>13411.5</v>
       </c>
       <c r="B615">
-        <v>152.0740814208984</v>
+        <v>145.3670806884766</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5308,7 +5308,7 @@
         <v>13412</v>
       </c>
       <c r="B616">
-        <v>152.5150451660156</v>
+        <v>143.5916595458984</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5316,7 +5316,7 @@
         <v>13412.5</v>
       </c>
       <c r="B617">
-        <v>153.8148803710938</v>
+        <v>143.4521636962891</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5324,7 +5324,7 @@
         <v>13413</v>
       </c>
       <c r="B618">
-        <v>153.2882843017578</v>
+        <v>142.2952880859375</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5332,7 +5332,7 @@
         <v>13413.5</v>
       </c>
       <c r="B619">
-        <v>153.2882843017578</v>
+        <v>142.2952880859375</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5340,7 +5340,7 @@
         <v>13414</v>
       </c>
       <c r="B620">
-        <v>154.6645355224609</v>
+        <v>143.3733062744141</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5348,7 +5348,7 @@
         <v>13414.5</v>
       </c>
       <c r="B621">
-        <v>153.4130859375</v>
+        <v>139.1177520751953</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5356,7 +5356,7 @@
         <v>13415</v>
       </c>
       <c r="B622">
-        <v>156.7258911132812</v>
+        <v>146.8739929199219</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5364,7 +5364,7 @@
         <v>13415.5</v>
       </c>
       <c r="B623">
-        <v>153.0279235839844</v>
+        <v>142.8097534179688</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5372,7 +5372,7 @@
         <v>13416</v>
       </c>
       <c r="B624">
-        <v>152.5150451660156</v>
+        <v>142.8272552490234</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -6028,7 +6028,7 @@
         <v>13457</v>
       </c>
       <c r="B706">
-        <v>150.9851379394531</v>
+        <v>143.9842071533203</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6036,7 +6036,7 @@
         <v>13457.5</v>
       </c>
       <c r="B707">
-        <v>149.7814483642578</v>
+        <v>146.453857421875</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6044,7 +6044,7 @@
         <v>13458</v>
       </c>
       <c r="B708">
-        <v>149.1620941162109</v>
+        <v>146.255859375</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6108,7 +6108,7 @@
         <v>13462</v>
       </c>
       <c r="B716">
-        <v>150.9851379394531</v>
+        <v>143.9842071533203</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6116,7 +6116,7 @@
         <v>13462.5</v>
       </c>
       <c r="B717">
-        <v>150.3612213134766</v>
+        <v>143.7816467285156</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6124,7 +6124,7 @@
         <v>13463</v>
       </c>
       <c r="B718">
-        <v>150.9224395751953</v>
+        <v>142.4494018554688</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6132,7 +6132,7 @@
         <v>13463.5</v>
       </c>
       <c r="B719">
-        <v>149.9490203857422</v>
+        <v>145.4390258789062</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6140,7 +6140,7 @@
         <v>13464</v>
       </c>
       <c r="B720">
-        <v>149.9490203857422</v>
+        <v>145.4390258789062</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6148,7 +6148,7 @@
         <v>13464.5</v>
       </c>
       <c r="B721">
-        <v>150.1632232666016</v>
+        <v>141.690185546875</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6156,7 +6156,7 @@
         <v>13465</v>
       </c>
       <c r="B722">
-        <v>149.9374847412109</v>
+        <v>143.35791015625</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6164,7 +6164,7 @@
         <v>13465.5</v>
       </c>
       <c r="B723">
-        <v>150.1632232666016</v>
+        <v>141.690185546875</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6172,7 +6172,7 @@
         <v>13466</v>
       </c>
       <c r="B724">
-        <v>150.7244415283203</v>
+        <v>142.2514038085938</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6180,7 +6180,7 @@
         <v>13466.5</v>
       </c>
       <c r="B725">
-        <v>151.1854553222656</v>
+        <v>142.7124176025391</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6188,7 +6188,7 @@
         <v>13467</v>
       </c>
       <c r="B726">
-        <v>150.5841369628906</v>
+        <v>142.3910675048828</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6196,7 +6196,7 @@
         <v>13467.5</v>
       </c>
       <c r="B727">
-        <v>153.8438415527344</v>
+        <v>141.2284393310547</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -7356,7 +7356,7 @@
         <v>13540</v>
       </c>
       <c r="B872">
-        <v>155.2705383300781</v>
+        <v>144.2588653564453</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7364,7 +7364,7 @@
         <v>13540.5</v>
       </c>
       <c r="B873">
-        <v>156.7681274414062</v>
+        <v>145.7564849853516</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7372,7 +7372,7 @@
         <v>13541</v>
       </c>
       <c r="B874">
-        <v>156.45458984375</v>
+        <v>145.4429168701172</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7380,7 +7380,7 @@
         <v>13541.5</v>
       </c>
       <c r="B875">
-        <v>154.4621276855469</v>
+        <v>143.4504547119141</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7388,7 +7388,7 @@
         <v>13542</v>
       </c>
       <c r="B876">
-        <v>154.4621276855469</v>
+        <v>143.4504547119141</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7396,7 +7396,7 @@
         <v>13542.5</v>
       </c>
       <c r="B877">
-        <v>154.8271331787109</v>
+        <v>142.2727508544922</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7404,7 +7404,7 @@
         <v>13543</v>
       </c>
       <c r="B878">
-        <v>154.8271331787109</v>
+        <v>142.2727508544922</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7412,7 +7412,7 @@
         <v>13543.5</v>
       </c>
       <c r="B879">
-        <v>154.8271331787109</v>
+        <v>142.2727508544922</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7420,7 +7420,7 @@
         <v>13544</v>
       </c>
       <c r="B880">
-        <v>154.8271331787109</v>
+        <v>142.2727508544922</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7428,7 +7428,7 @@
         <v>13544.5</v>
       </c>
       <c r="B881">
-        <v>154.8271331787109</v>
+        <v>142.2727508544922</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7436,7 +7436,7 @@
         <v>13545</v>
       </c>
       <c r="B882">
-        <v>154.9000091552734</v>
+        <v>143.2680511474609</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7444,7 +7444,7 @@
         <v>13545.5</v>
       </c>
       <c r="B883">
-        <v>155.4128875732422</v>
+        <v>143.2505493164062</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7452,7 +7452,7 @@
         <v>13546</v>
       </c>
       <c r="B884">
-        <v>155.4128875732422</v>
+        <v>143.2505493164062</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7460,7 +7460,7 @@
         <v>13546.5</v>
       </c>
       <c r="B885">
-        <v>158.0484161376953</v>
+        <v>145.1065521240234</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7468,7 +7468,7 @@
         <v>13547</v>
       </c>
       <c r="B886">
-        <v>155.7099914550781</v>
+        <v>148.4679412841797</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7476,7 +7476,7 @@
         <v>13547.5</v>
       </c>
       <c r="B887">
-        <v>154.4889526367188</v>
+        <v>147.8985748291016</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7484,7 +7484,7 @@
         <v>13548</v>
       </c>
       <c r="B888">
-        <v>155.4842529296875</v>
+        <v>148.8938751220703</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7492,7 +7492,7 @@
         <v>13548.5</v>
       </c>
       <c r="B889">
-        <v>155.4842529296875</v>
+        <v>148.8938751220703</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7500,7 +7500,7 @@
         <v>13549</v>
       </c>
       <c r="B890">
-        <v>155.4842529296875</v>
+        <v>148.8938751220703</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7508,7 +7508,7 @@
         <v>13549.5</v>
       </c>
       <c r="B891">
-        <v>156.2712097167969</v>
+        <v>149.0291595458984</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7556,7 +7556,7 @@
         <v>13552.5</v>
       </c>
       <c r="B897">
-        <v>154.4889526367188</v>
+        <v>147.8985748291016</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7564,7 +7564,7 @@
         <v>13553</v>
       </c>
       <c r="B898">
-        <v>154.7146911621094</v>
+        <v>148.1243133544922</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7572,7 +7572,7 @@
         <v>13553.5</v>
       </c>
       <c r="B899">
-        <v>156.2712097167969</v>
+        <v>149.0291595458984</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7580,7 +7580,7 @@
         <v>13554</v>
       </c>
       <c r="B900">
-        <v>155.7099914550781</v>
+        <v>148.4679412841797</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7588,7 +7588,7 @@
         <v>13554.5</v>
       </c>
       <c r="B901">
-        <v>156.2712097167969</v>
+        <v>149.0291595458984</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7596,7 +7596,7 @@
         <v>13555</v>
       </c>
       <c r="B902">
-        <v>156.4308013916016</v>
+        <v>147.9342956542969</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7604,7 +7604,7 @@
         <v>13555.5</v>
       </c>
       <c r="B903">
-        <v>155.1286773681641</v>
+        <v>140.3523406982422</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7612,7 +7612,7 @@
         <v>13556</v>
       </c>
       <c r="B904">
-        <v>154.9912109375</v>
+        <v>141.4693298339844</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7620,7 +7620,7 @@
         <v>13556.5</v>
       </c>
       <c r="B905">
-        <v>155.4819641113281</v>
+        <v>141.1724548339844</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7628,7 +7628,7 @@
         <v>13557</v>
       </c>
       <c r="B906">
-        <v>152.98681640625</v>
+        <v>147.5877685546875</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7636,7 +7636,7 @@
         <v>13557.5</v>
       </c>
       <c r="B907">
-        <v>153.9244842529297</v>
+        <v>146.9835815429688</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7644,7 +7644,7 @@
         <v>13558</v>
       </c>
       <c r="B908">
-        <v>155.4291534423828</v>
+        <v>145.242919921875</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7652,7 +7652,7 @@
         <v>13558.5</v>
       </c>
       <c r="B909">
-        <v>154.6362457275391</v>
+        <v>145.7214965820312</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7660,7 +7660,7 @@
         <v>13559</v>
       </c>
       <c r="B910">
-        <v>153.9026031494141</v>
+        <v>139.6935729980469</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7668,7 +7668,7 @@
         <v>13559.5</v>
       </c>
       <c r="B911">
-        <v>153.0857849121094</v>
+        <v>147.3663635253906</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7676,7 +7676,7 @@
         <v>13560</v>
       </c>
       <c r="B912">
-        <v>149.4561767578125</v>
+        <v>142.1845703125</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7684,7 +7684,7 @@
         <v>13560.5</v>
       </c>
       <c r="B913">
-        <v>151.5435485839844</v>
+        <v>149.2048492431641</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7692,7 +7692,7 @@
         <v>13561</v>
       </c>
       <c r="B914">
-        <v>151.9915161132812</v>
+        <v>146.6629333496094</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7700,7 +7700,7 @@
         <v>13561.5</v>
       </c>
       <c r="B915">
-        <v>151.9915161132812</v>
+        <v>146.6629333496094</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7708,7 +7708,7 @@
         <v>13562</v>
       </c>
       <c r="B916">
-        <v>154.5205993652344</v>
+        <v>149.2133331298828</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7716,7 +7716,7 @@
         <v>13562.5</v>
       </c>
       <c r="B917">
-        <v>154.5205993652344</v>
+        <v>149.2133331298828</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7724,7 +7724,7 @@
         <v>13563</v>
       </c>
       <c r="B918">
-        <v>154.5205993652344</v>
+        <v>149.2133331298828</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7732,7 +7732,7 @@
         <v>13563.5</v>
       </c>
       <c r="B919">
-        <v>153.9940032958984</v>
+        <v>148.3372039794922</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7740,7 +7740,7 @@
         <v>13564</v>
       </c>
       <c r="B920">
-        <v>155.906494140625</v>
+        <v>147.6101379394531</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7748,7 +7748,7 @@
         <v>13564.5</v>
       </c>
       <c r="B921">
-        <v>152.1079711914062</v>
+        <v>143.7420654296875</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7756,7 +7756,7 @@
         <v>13565</v>
       </c>
       <c r="B922">
-        <v>156.1375122070312</v>
+        <v>142.0014343261719</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7764,7 +7764,7 @@
         <v>13565.5</v>
       </c>
       <c r="B923">
-        <v>156.1375122070312</v>
+        <v>142.0014343261719</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7772,7 +7772,7 @@
         <v>13566</v>
       </c>
       <c r="B924">
-        <v>156.512451171875</v>
+        <v>142.1186218261719</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7780,7 +7780,7 @@
         <v>13566.5</v>
       </c>
       <c r="B925">
-        <v>154.0024719238281</v>
+        <v>142.8539428710938</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7788,7 +7788,7 @@
         <v>13567</v>
       </c>
       <c r="B926">
-        <v>154.9854888916016</v>
+        <v>139.8194580078125</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7796,7 +7796,7 @@
         <v>13567.5</v>
       </c>
       <c r="B927">
-        <v>154.3295135498047</v>
+        <v>138.8993225097656</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7804,7 +7804,7 @@
         <v>13568</v>
       </c>
       <c r="B928">
-        <v>154.3295135498047</v>
+        <v>138.8993225097656</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7812,7 +7812,7 @@
         <v>13568.5</v>
       </c>
       <c r="B929">
-        <v>154.3295135498047</v>
+        <v>138.8993225097656</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7820,7 +7820,7 @@
         <v>13569</v>
       </c>
       <c r="B930">
-        <v>155.7954559326172</v>
+        <v>140.9567260742188</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7828,7 +7828,7 @@
         <v>13569.5</v>
       </c>
       <c r="B931">
-        <v>157.5141448974609</v>
+        <v>142.7927398681641</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7836,7 +7836,7 @@
         <v>13570</v>
       </c>
       <c r="B932">
-        <v>158.5094451904297</v>
+        <v>143.7880401611328</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7844,7 +7844,7 @@
         <v>13570.5</v>
       </c>
       <c r="B933">
-        <v>158.6827850341797</v>
+        <v>144.6250915527344</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7852,7 +7852,7 @@
         <v>13571</v>
       </c>
       <c r="B934">
-        <v>158.7851867675781</v>
+        <v>150.1695556640625</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7860,7 +7860,7 @@
         <v>13571.5</v>
       </c>
       <c r="B935">
-        <v>156.7322387695312</v>
+        <v>148.4916839599609</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -8044,7 +8044,7 @@
         <v>13583</v>
       </c>
       <c r="B958">
-        <v>155.4497528076172</v>
+        <v>143.7891082763672</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8052,7 +8052,7 @@
         <v>13583.5</v>
       </c>
       <c r="B959">
-        <v>155.4497528076172</v>
+        <v>143.7891082763672</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8060,7 +8060,7 @@
         <v>13584</v>
       </c>
       <c r="B960">
-        <v>157.8841094970703</v>
+        <v>146.4876251220703</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8068,7 +8068,7 @@
         <v>13584.5</v>
       </c>
       <c r="B961">
-        <v>157.9865112304688</v>
+        <v>152.0320892333984</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8076,7 +8076,7 @@
         <v>13585</v>
       </c>
       <c r="B962">
-        <v>156.1068725585938</v>
+        <v>150.4102325439453</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8084,7 +8084,7 @@
         <v>13585.5</v>
       </c>
       <c r="B963">
-        <v>156.4718780517578</v>
+        <v>149.2325286865234</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8092,7 +8092,7 @@
         <v>13586</v>
       </c>
       <c r="B964">
-        <v>158.3515167236328</v>
+        <v>150.8543853759766</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8100,7 +8100,7 @@
         <v>13586.5</v>
       </c>
       <c r="B965">
-        <v>158.2491149902344</v>
+        <v>145.3099212646484</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8188,7 +8188,7 @@
         <v>13592</v>
       </c>
       <c r="B976">
-        <v>152.6539154052734</v>
+        <v>133.3055267333984</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8196,7 +8196,7 @@
         <v>13592.5</v>
       </c>
       <c r="B977">
-        <v>153.9560394287109</v>
+        <v>141.1447296142578</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8204,7 +8204,7 @@
         <v>13593</v>
       </c>
       <c r="B978">
-        <v>152.6539154052734</v>
+        <v>133.3055267333984</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8212,7 +8212,7 @@
         <v>13593.5</v>
       </c>
       <c r="B979">
-        <v>152.0093383789062</v>
+        <v>133.4485778808594</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8220,7 +8220,7 @@
         <v>13594</v>
       </c>
       <c r="B980">
-        <v>152.3889007568359</v>
+        <v>133.8281402587891</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8228,7 +8228,7 @@
         <v>13594.5</v>
       </c>
       <c r="B981">
-        <v>154.1817779541016</v>
+        <v>140.7187957763672</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8236,7 +8236,7 @@
         <v>13595</v>
       </c>
       <c r="B982">
-        <v>153.4431610107422</v>
+        <v>141.1622314453125</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8244,7 +8244,7 @@
         <v>13595.5</v>
       </c>
       <c r="B983">
-        <v>151.7949981689453</v>
+        <v>141.1622314453125</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8252,7 +8252,7 @@
         <v>13596</v>
       </c>
       <c r="B984">
-        <v>151.7949981689453</v>
+        <v>141.1622314453125</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8260,7 +8260,7 @@
         <v>13596.5</v>
       </c>
       <c r="B985">
-        <v>153.6688995361328</v>
+        <v>141.3879699707031</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8268,7 +8268,7 @@
         <v>13597</v>
       </c>
       <c r="B986">
-        <v>154.2300872802734</v>
+        <v>141.2975158691406</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8276,7 +8276,7 @@
         <v>13597.5</v>
       </c>
       <c r="B987">
-        <v>154.2300872802734</v>
+        <v>141.2975158691406</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8284,7 +8284,7 @@
         <v>13598</v>
       </c>
       <c r="B988">
-        <v>153.4431610107422</v>
+        <v>141.1622314453125</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8292,7 +8292,7 @@
         <v>13598.5</v>
       </c>
       <c r="B989">
-        <v>153.6688995361328</v>
+        <v>140.7362976074219</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8300,7 +8300,7 @@
         <v>13599</v>
       </c>
       <c r="B990">
-        <v>152.5819244384766</v>
+        <v>141.2975158691406</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8308,7 +8308,7 @@
         <v>13599.5</v>
       </c>
       <c r="B991">
-        <v>153.3702850341797</v>
+        <v>140.1669311523438</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8316,7 +8316,7 @@
         <v>13600</v>
       </c>
       <c r="B992">
-        <v>153.3702850341797</v>
+        <v>140.1669311523438</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8324,7 +8324,7 @@
         <v>13600.5</v>
       </c>
       <c r="B993">
-        <v>151.4782562255859</v>
+        <v>138.2749328613281</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8332,7 +8332,7 @@
         <v>13601</v>
       </c>
       <c r="B994">
-        <v>151.4782562255859</v>
+        <v>138.2749328613281</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8340,7 +8340,7 @@
         <v>13601.5</v>
       </c>
       <c r="B995">
-        <v>152.9173126220703</v>
+        <v>139.9781494140625</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8348,7 +8348,7 @@
         <v>13602</v>
       </c>
       <c r="B996">
-        <v>154.8093414306641</v>
+        <v>143.4128570556641</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8356,7 +8356,7 @@
         <v>13602.5</v>
       </c>
       <c r="B997">
-        <v>154.9117431640625</v>
+        <v>148.9573211669922</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8364,7 +8364,7 @@
         <v>13603</v>
       </c>
       <c r="B998">
-        <v>153.0321044921875</v>
+        <v>147.3354644775391</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8372,7 +8372,7 @@
         <v>13603.5</v>
       </c>
       <c r="B999">
-        <v>154.8093414306641</v>
+        <v>141.8701477050781</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8380,7 +8380,7 @@
         <v>13604</v>
       </c>
       <c r="B1000">
-        <v>155.5962677001953</v>
+        <v>142.0054321289062</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8388,7 +8388,7 @@
         <v>13604.5</v>
       </c>
       <c r="B1001">
-        <v>155.8844909667969</v>
+        <v>140.4022369384766</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8396,7 +8396,7 @@
         <v>13605</v>
       </c>
       <c r="B1002">
-        <v>156.3407135009766</v>
+        <v>147.7250823974609</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8404,7 +8404,7 @@
         <v>13605.5</v>
       </c>
       <c r="B1003">
-        <v>156.6939697265625</v>
+        <v>148.5451965332031</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8412,7 +8412,7 @@
         <v>13606</v>
       </c>
       <c r="B1004">
-        <v>155.9070434570312</v>
+        <v>148.409912109375</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8420,7 +8420,7 @@
         <v>13606.5</v>
       </c>
       <c r="B1005">
-        <v>155.8046417236328</v>
+        <v>142.8654479980469</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8428,7 +8428,7 @@
         <v>13607</v>
       </c>
       <c r="B1006">
-        <v>155.8046417236328</v>
+        <v>142.8654479980469</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8436,7 +8436,7 @@
         <v>13607.5</v>
       </c>
       <c r="B1007">
-        <v>155.9070434570312</v>
+        <v>148.409912109375</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8444,7 +8444,7 @@
         <v>13608</v>
       </c>
       <c r="B1008">
-        <v>156.419921875</v>
+        <v>148.3924102783203</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8452,7 +8452,7 @@
         <v>13608.5</v>
       </c>
       <c r="B1009">
-        <v>152.6078186035156</v>
+        <v>138.0432281494141</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8460,7 +8460,7 @@
         <v>13609</v>
       </c>
       <c r="B1010">
-        <v>155.8046417236328</v>
+        <v>142.8654479980469</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8468,7 +8468,7 @@
         <v>13609.5</v>
       </c>
       <c r="B1011">
-        <v>155.8046417236328</v>
+        <v>142.8654479980469</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8476,7 +8476,7 @@
         <v>13610</v>
       </c>
       <c r="B1012">
-        <v>155.0153961181641</v>
+        <v>135.0087432861328</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8484,7 +8484,7 @@
         <v>13610.5</v>
       </c>
       <c r="B1013">
-        <v>152.1170654296875</v>
+        <v>138.3401031494141</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8492,7 +8492,7 @@
         <v>13611</v>
       </c>
       <c r="B1014">
-        <v>154.4732208251953</v>
+        <v>140.6962585449219</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8500,7 +8500,7 @@
         <v>13611.5</v>
       </c>
       <c r="B1015">
-        <v>152.5935821533203</v>
+        <v>139.0744018554688</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8508,7 +8508,7 @@
         <v>13612</v>
       </c>
       <c r="B1016">
-        <v>152.1925659179688</v>
+        <v>139.1608428955078</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8516,7 +8516,7 @@
         <v>13612.5</v>
       </c>
       <c r="B1017">
-        <v>154.0721740722656</v>
+        <v>140.7826995849609</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8524,7 +8524,7 @@
         <v>13613</v>
       </c>
       <c r="B1018">
-        <v>154.1082153320312</v>
+        <v>140.7897338867188</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8532,7 +8532,7 @@
         <v>13613.5</v>
       </c>
       <c r="B1019">
-        <v>148.515625</v>
+        <v>136.5391540527344</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8540,7 +8540,7 @@
         <v>13614</v>
       </c>
       <c r="B1020">
-        <v>148.8806304931641</v>
+        <v>136.9041595458984</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8548,7 +8548,7 @@
         <v>13614.5</v>
       </c>
       <c r="B1021">
-        <v>150.7602386474609</v>
+        <v>136.9833068847656</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8556,7 +8556,7 @@
         <v>13615</v>
       </c>
       <c r="B1022">
-        <v>150.7602386474609</v>
+        <v>136.9833068847656</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8564,7 +8564,7 @@
         <v>13615.5</v>
       </c>
       <c r="B1023">
-        <v>150.7242279052734</v>
+        <v>135.8920440673828</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8572,7 +8572,7 @@
         <v>13616</v>
       </c>
       <c r="B1024">
-        <v>145.8876190185547</v>
+        <v>135.4631958007812</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8580,7 +8580,7 @@
         <v>13616.5</v>
       </c>
       <c r="B1025">
-        <v>147.6777038574219</v>
+        <v>137.0850524902344</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8588,7 +8588,7 @@
         <v>13617</v>
       </c>
       <c r="B1026">
-        <v>148.775390625</v>
+        <v>137.0850524902344</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8596,7 +8596,7 @@
         <v>13617.5</v>
       </c>
       <c r="B1027">
-        <v>148.6729888916016</v>
+        <v>131.5405883789062</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8604,7 +8604,7 @@
         <v>13618</v>
       </c>
       <c r="B1028">
-        <v>146.0484924316406</v>
+        <v>129.5743560791016</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8612,7 +8612,7 @@
         <v>13618.5</v>
       </c>
       <c r="B1029">
-        <v>146.0484924316406</v>
+        <v>129.5743560791016</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8620,7 +8620,7 @@
         <v>13619</v>
       </c>
       <c r="B1030">
-        <v>146.3115081787109</v>
+        <v>129.8373718261719</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8628,7 +8628,7 @@
         <v>13619.5</v>
       </c>
       <c r="B1031">
-        <v>145.2138214111328</v>
+        <v>129.8373718261719</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8636,7 +8636,7 @@
         <v>13620</v>
       </c>
       <c r="B1032">
-        <v>145.3033447265625</v>
+        <v>129.8373718261719</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8644,7 +8644,7 @@
         <v>13620.5</v>
       </c>
       <c r="B1033">
-        <v>145.3033447265625</v>
+        <v>129.8373718261719</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8652,7 +8652,7 @@
         <v>13621</v>
       </c>
       <c r="B1034">
-        <v>145.3033447265625</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8660,7 +8660,7 @@
         <v>13621.5</v>
       </c>
       <c r="B1035">
-        <v>145.2138214111328</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8668,7 +8668,7 @@
         <v>13622</v>
       </c>
       <c r="B1036">
-        <v>145.2138214111328</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8676,7 +8676,7 @@
         <v>13622.5</v>
       </c>
       <c r="B1037">
-        <v>145.2138214111328</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8684,7 +8684,7 @@
         <v>13623</v>
       </c>
       <c r="B1038">
-        <v>145.2138214111328</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8692,7 +8692,7 @@
         <v>13623.5</v>
       </c>
       <c r="B1039">
-        <v>144.9383392333984</v>
+        <v>131.0150756835938</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8700,7 +8700,7 @@
         <v>13624</v>
       </c>
       <c r="B1040">
-        <v>145.3033447265625</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8708,7 +8708,7 @@
         <v>13624.5</v>
       </c>
       <c r="B1041">
-        <v>145.3033447265625</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8716,7 +8716,7 @@
         <v>13625</v>
       </c>
       <c r="B1042">
-        <v>145.3033447265625</v>
+        <v>131.3800811767578</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8724,7 +8724,7 @@
         <v>13625.5</v>
       </c>
       <c r="B1043">
-        <v>148.2603454589844</v>
+        <v>130.1870727539062</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8732,7 +8732,7 @@
         <v>13626</v>
       </c>
       <c r="B1044">
-        <v>148.2963562011719</v>
+        <v>129.7356262207031</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8740,7 +8740,7 @@
         <v>13626.5</v>
       </c>
       <c r="B1045">
-        <v>148.4501800537109</v>
+        <v>129.8894500732422</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8748,7 +8748,7 @@
         <v>13627</v>
       </c>
       <c r="B1046">
-        <v>148.0851745605469</v>
+        <v>131.0671539306641</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8756,7 +8756,7 @@
         <v>13627.5</v>
       </c>
       <c r="B1047">
-        <v>148.0851745605469</v>
+        <v>131.0671539306641</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8764,7 +8764,7 @@
         <v>13628</v>
       </c>
       <c r="B1048">
-        <v>148.575927734375</v>
+        <v>130.7702789306641</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8772,7 +8772,7 @@
         <v>13628.5</v>
       </c>
       <c r="B1049">
-        <v>148.575927734375</v>
+        <v>130.7702789306641</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8780,7 +8780,7 @@
         <v>13629</v>
       </c>
       <c r="B1050">
-        <v>150.8116607666016</v>
+        <v>131.5926666259766</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8788,7 +8788,7 @@
         <v>13629.5</v>
       </c>
       <c r="B1051">
-        <v>150.6578369140625</v>
+        <v>131.4388427734375</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8796,7 +8796,7 @@
         <v>13630</v>
       </c>
       <c r="B1052">
-        <v>151.4087829589844</v>
+        <v>130.4828338623047</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8804,7 +8804,7 @@
         <v>13630.5</v>
       </c>
       <c r="B1053">
-        <v>151.4087829589844</v>
+        <v>130.4828338623047</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8812,7 +8812,7 @@
         <v>13631</v>
       </c>
       <c r="B1054">
-        <v>148.2963562011719</v>
+        <v>129.7356262207031</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8820,7 +8820,7 @@
         <v>13631.5</v>
       </c>
       <c r="B1055">
-        <v>148.9409332275391</v>
+        <v>128.1205291748047</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8828,7 +8828,7 @@
         <v>13632</v>
       </c>
       <c r="B1056">
-        <v>148.9409332275391</v>
+        <v>128.6557464599609</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8836,7 +8836,7 @@
         <v>13632.5</v>
       </c>
       <c r="B1057">
-        <v>148.9409332275391</v>
+        <v>128.6557464599609</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8844,7 +8844,7 @@
         <v>13633</v>
       </c>
       <c r="B1058">
-        <v>148.4501800537109</v>
+        <v>128.9526214599609</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8852,7 +8852,7 @@
         <v>13633.5</v>
       </c>
       <c r="B1059">
-        <v>148.2963562011719</v>
+        <v>128.7987976074219</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8860,7 +8860,7 @@
         <v>13634</v>
       </c>
       <c r="B1060">
-        <v>148.2963562011719</v>
+        <v>128.7987976074219</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8868,7 +8868,7 @@
         <v>13634.5</v>
       </c>
       <c r="B1061">
-        <v>148.4501800537109</v>
+        <v>128.9526214599609</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8876,7 +8876,7 @@
         <v>13635</v>
       </c>
       <c r="B1062">
-        <v>148.4501800537109</v>
+        <v>128.0442962646484</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8884,7 +8884,7 @@
         <v>13635.5</v>
       </c>
       <c r="B1063">
-        <v>148.2963562011719</v>
+        <v>127.8904571533203</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8892,7 +8892,7 @@
         <v>13636</v>
       </c>
       <c r="B1064">
-        <v>150.6023864746094</v>
+        <v>130.1965026855469</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8900,7 +8900,7 @@
         <v>13636.5</v>
       </c>
       <c r="B1065">
-        <v>150.6023864746094</v>
+        <v>131.7392120361328</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8908,7 +8908,7 @@
         <v>13637</v>
       </c>
       <c r="B1066">
-        <v>150.9160614013672</v>
+        <v>132.3553314208984</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8916,7 +8916,7 @@
         <v>13637.5</v>
       </c>
       <c r="B1067">
-        <v>151.6055297851562</v>
+        <v>130.7851257324219</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8924,7 +8924,7 @@
         <v>13638</v>
       </c>
       <c r="B1068">
-        <v>153.6709899902344</v>
+        <v>130.0074462890625</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8932,7 +8932,7 @@
         <v>13638.5</v>
       </c>
       <c r="B1069">
-        <v>154.9731140136719</v>
+        <v>137.5894012451172</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8940,7 +8940,7 @@
         <v>13639</v>
       </c>
       <c r="B1070">
-        <v>153.2028961181641</v>
+        <v>138.5464630126953</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8948,7 +8948,7 @@
         <v>13639.5</v>
       </c>
       <c r="B1071">
-        <v>150.5683898925781</v>
+        <v>130.9175872802734</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8956,7 +8956,7 @@
         <v>13640</v>
       </c>
       <c r="B1072">
-        <v>148.575927734375</v>
+        <v>128.9251251220703</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8964,7 +8964,7 @@
         <v>13640.5</v>
       </c>
       <c r="B1073">
-        <v>148.575927734375</v>
+        <v>128.9251251220703</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8972,7 +8972,7 @@
         <v>13641</v>
       </c>
       <c r="B1074">
-        <v>152.1881103515625</v>
+        <v>139.4474945068359</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8980,7 +8980,7 @@
         <v>13641.5</v>
       </c>
       <c r="B1075">
-        <v>154.0992584228516</v>
+        <v>139.4189910888672</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8988,7 +8988,7 @@
         <v>13642</v>
       </c>
       <c r="B1076">
-        <v>154.6121368408203</v>
+        <v>140.7198333740234</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8996,7 +8996,7 @@
         <v>13642.5</v>
       </c>
       <c r="B1077">
-        <v>152.1691131591797</v>
+        <v>131.9969787597656</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9004,7 +9004,7 @@
         <v>13643</v>
       </c>
       <c r="B1078">
-        <v>152.1691131591797</v>
+        <v>131.9969787597656</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9012,7 +9012,7 @@
         <v>13643.5</v>
       </c>
       <c r="B1079">
-        <v>152.1691131591797</v>
+        <v>131.9969787597656</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9020,7 +9020,7 @@
         <v>13644</v>
       </c>
       <c r="B1080">
-        <v>151.2445526123047</v>
+        <v>133.4389038085938</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9028,7 +9028,7 @@
         <v>13644.5</v>
       </c>
       <c r="B1081">
-        <v>151.9048004150391</v>
+        <v>132.5564422607422</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9036,7 +9036,7 @@
         <v>13645</v>
       </c>
       <c r="B1082">
-        <v>151.3933715820312</v>
+        <v>132.1809387207031</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9044,7 +9044,7 @@
         <v>13645.5</v>
       </c>
       <c r="B1083">
-        <v>149.0513305664062</v>
+        <v>128.7836456298828</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9052,7 +9052,7 @@
         <v>13646</v>
       </c>
       <c r="B1084">
-        <v>148.2643737792969</v>
+        <v>128.6483917236328</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9060,7 +9060,7 @@
         <v>13646.5</v>
       </c>
       <c r="B1085">
-        <v>148.3003845214844</v>
+        <v>129.7396545410156</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9068,7 +9068,7 @@
         <v>13647</v>
       </c>
       <c r="B1086">
-        <v>148.9449615478516</v>
+        <v>129.5966033935547</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9076,7 +9076,7 @@
         <v>13647.5</v>
       </c>
       <c r="B1087">
-        <v>151.0414581298828</v>
+        <v>131.1707611083984</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9084,7 +9084,7 @@
         <v>13648</v>
       </c>
       <c r="B1088">
-        <v>151.5512237548828</v>
+        <v>136.0383911132812</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9092,7 +9092,7 @@
         <v>13648.5</v>
       </c>
       <c r="B1089">
-        <v>146.0290985107422</v>
+        <v>133.3617095947266</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9100,7 +9100,7 @@
         <v>13649</v>
       </c>
       <c r="B1090">
-        <v>146.1173858642578</v>
+        <v>135.6929626464844</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9108,7 +9108,7 @@
         <v>13649.5</v>
       </c>
       <c r="B1091">
-        <v>145.8916473388672</v>
+        <v>135.4672241210938</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9116,7 +9116,7 @@
         <v>13650</v>
       </c>
       <c r="B1092">
-        <v>148.3003845214844</v>
+        <v>129.7396545410156</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9124,7 +9124,7 @@
         <v>13650.5</v>
       </c>
       <c r="B1093">
-        <v>151.2509918212891</v>
+        <v>131.9026336669922</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9132,7 +9132,7 @@
         <v>13651</v>
       </c>
       <c r="B1094">
-        <v>153.8125</v>
+        <v>131.0633392333984</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9140,7 +9140,7 @@
         <v>13651.5</v>
       </c>
       <c r="B1095">
-        <v>151.5113525390625</v>
+        <v>131.1617584228516</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9148,7 +9148,7 @@
         <v>13652</v>
       </c>
       <c r="B1096">
-        <v>151.4439239501953</v>
+        <v>130.5065612792969</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9156,7 +9156,7 @@
         <v>13652.5</v>
       </c>
       <c r="B1097">
-        <v>149.8254089355469</v>
+        <v>134.1825408935547</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9164,7 +9164,7 @@
         <v>13653</v>
       </c>
       <c r="B1098">
-        <v>146.7366180419922</v>
+        <v>135.4561767578125</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9172,7 +9172,7 @@
         <v>13653.5</v>
       </c>
       <c r="B1099">
-        <v>148.3297576904297</v>
+        <v>134.2259979248047</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9180,7 +9180,7 @@
         <v>13654</v>
       </c>
       <c r="B1100">
-        <v>145.8916473388672</v>
+        <v>133.6220703125</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9188,7 +9188,7 @@
         <v>13654.5</v>
       </c>
       <c r="B1101">
-        <v>150.2608489990234</v>
+        <v>129.6841583251953</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9196,7 +9196,7 @@
         <v>13655</v>
       </c>
       <c r="B1102">
-        <v>150.5724182128906</v>
+        <v>130.9216156005859</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9204,7 +9204,7 @@
         <v>13655.5</v>
       </c>
       <c r="B1103">
-        <v>151.6095581054688</v>
+        <v>130.4160461425781</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9212,7 +9212,7 @@
         <v>13656</v>
       </c>
       <c r="B1104">
-        <v>152.1305389404297</v>
+        <v>131.1936798095703</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9220,7 +9220,7 @@
         <v>13656.5</v>
       </c>
       <c r="B1105">
-        <v>151.2693328857422</v>
+        <v>130.9841461181641</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9228,7 +9228,7 @@
         <v>13657</v>
       </c>
       <c r="B1106">
-        <v>152.3457183837891</v>
+        <v>137.6892852783203</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9236,7 +9236,7 @@
         <v>13657.5</v>
       </c>
       <c r="B1107">
-        <v>153.227294921875</v>
+        <v>137.6486053466797</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9244,7 +9244,7 @@
         <v>13658</v>
       </c>
       <c r="B1108">
-        <v>152.7144165039062</v>
+        <v>137.9233551025391</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9252,7 +9252,7 @@
         <v>13658.5</v>
       </c>
       <c r="B1109">
-        <v>153.1573181152344</v>
+        <v>139.0910797119141</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9260,7 +9260,7 @@
         <v>13659</v>
       </c>
       <c r="B1110">
-        <v>154.6448669433594</v>
+        <v>136.5807952880859</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9268,7 +9268,7 @@
         <v>13659.5</v>
       </c>
       <c r="B1111">
-        <v>148.7375640869141</v>
+        <v>127.5440444946289</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9276,7 +9276,7 @@
         <v>13660</v>
       </c>
       <c r="B1112">
-        <v>148.0929870605469</v>
+        <v>129.2298126220703</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9284,7 +9284,7 @@
         <v>13660.5</v>
       </c>
       <c r="B1113">
-        <v>146.7864990234375</v>
+        <v>129.3591003417969</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9292,7 +9292,7 @@
         <v>13661</v>
       </c>
       <c r="B1114">
-        <v>147.1000671386719</v>
+        <v>131.3316192626953</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9628,7 +9628,7 @@
         <v>13682</v>
       </c>
       <c r="B1156">
-        <v>150.3935394287109</v>
+        <v>136.7611999511719</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9636,7 +9636,7 @@
         <v>13682.5</v>
       </c>
       <c r="B1157">
-        <v>148.9099426269531</v>
+        <v>133.6055297851562</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9644,7 +9644,7 @@
         <v>13683</v>
       </c>
       <c r="B1158">
-        <v>148.3970642089844</v>
+        <v>133.8802795410156</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9652,7 +9652,7 @@
         <v>13683.5</v>
       </c>
       <c r="B1159">
-        <v>149.7632446289062</v>
+        <v>134.5881958007812</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9660,7 +9660,7 @@
         <v>13684</v>
       </c>
       <c r="B1160">
-        <v>147.4793548583984</v>
+        <v>133.5197143554688</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9668,7 +9668,7 @@
         <v>13684.5</v>
       </c>
       <c r="B1161">
-        <v>149.6911773681641</v>
+        <v>142.6564636230469</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9676,7 +9676,7 @@
         <v>13685</v>
       </c>
       <c r="B1162">
-        <v>151.3285217285156</v>
+        <v>138.9552917480469</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9684,7 +9684,7 @@
         <v>13685.5</v>
       </c>
       <c r="B1163">
-        <v>149.8894653320312</v>
+        <v>137.2520751953125</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9692,7 +9692,7 @@
         <v>13686</v>
       </c>
       <c r="B1164">
-        <v>156.7085266113281</v>
+        <v>138.4681701660156</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9700,7 +9700,7 @@
         <v>13686.5</v>
       </c>
       <c r="B1165">
-        <v>154.2449340820312</v>
+        <v>134.5216827392578</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9708,7 +9708,7 @@
         <v>13687</v>
       </c>
       <c r="B1166">
-        <v>151.3939514160156</v>
+        <v>122.1971817016602</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9716,7 +9716,7 @@
         <v>13687.5</v>
       </c>
       <c r="B1167">
-        <v>158.406982421875</v>
+        <v>129.7466430664062</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9860,7 +9860,7 @@
         <v>13696.5</v>
       </c>
       <c r="B1185">
-        <v>146.9825592041016</v>
+        <v>133.8144989013672</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9868,7 +9868,7 @@
         <v>13697</v>
       </c>
       <c r="B1186">
-        <v>149.2505187988281</v>
+        <v>131.5858612060547</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9876,7 +9876,7 @@
         <v>13697.5</v>
       </c>
       <c r="B1187">
-        <v>152.8542175292969</v>
+        <v>138.5859375</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -9884,7 +9884,7 @@
         <v>13698</v>
       </c>
       <c r="B1188">
-        <v>152.1966857910156</v>
+        <v>136.9480590820312</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9892,7 +9892,7 @@
         <v>13698.5</v>
       </c>
       <c r="B1189">
-        <v>155.0968017578125</v>
+        <v>128.5247344970703</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -9900,7 +9900,7 @@
         <v>13699</v>
       </c>
       <c r="B1190">
-        <v>153.3022155761719</v>
+        <v>131.0036163330078</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9908,7 +9908,7 @@
         <v>13699.5</v>
       </c>
       <c r="B1191">
-        <v>155.9032745361328</v>
+        <v>133.0429077148438</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -9916,7 +9916,7 @@
         <v>13700</v>
       </c>
       <c r="B1192">
-        <v>155.5348663330078</v>
+        <v>132.1481018066406</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -9924,7 +9924,7 @@
         <v>13700.5</v>
       </c>
       <c r="B1193">
-        <v>161.9947052001953</v>
+        <v>135.3871459960938</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9932,7 +9932,7 @@
         <v>13701</v>
       </c>
       <c r="B1194">
-        <v>160.9530487060547</v>
+        <v>130.3064575195312</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9940,7 +9940,7 @@
         <v>13701.5</v>
       </c>
       <c r="B1195">
-        <v>160.0289306640625</v>
+        <v>130.3064575195312</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -10116,7 +10116,7 @@
         <v>13712.5</v>
       </c>
       <c r="B1217">
-        <v>150.7872467041016</v>
+        <v>136.9828643798828</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10124,7 +10124,7 @@
         <v>13713</v>
       </c>
       <c r="B1218">
-        <v>150.917236328125</v>
+        <v>137.258544921875</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10132,7 +10132,7 @@
         <v>13713.5</v>
       </c>
       <c r="B1219">
-        <v>157.4627075195312</v>
+        <v>138.27587890625</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10140,7 +10140,7 @@
         <v>13714</v>
       </c>
       <c r="B1220">
-        <v>157.6355743408203</v>
+        <v>137.3770599365234</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10148,7 +10148,7 @@
         <v>13714.5</v>
       </c>
       <c r="B1221">
-        <v>160.7241363525391</v>
+        <v>137.5116729736328</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10156,7 +10156,7 @@
         <v>13715</v>
       </c>
       <c r="B1222">
-        <v>160.7241363525391</v>
+        <v>137.5116729736328</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10164,7 +10164,7 @@
         <v>13715.5</v>
       </c>
       <c r="B1223">
-        <v>160.8834228515625</v>
+        <v>137.6709594726562</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10172,7 +10172,7 @@
         <v>13716</v>
       </c>
       <c r="B1224">
-        <v>160.3094177246094</v>
+        <v>137.0969543457031</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10180,7 +10180,7 @@
         <v>13716.5</v>
       </c>
       <c r="B1225">
-        <v>160.3094177246094</v>
+        <v>137.0969543457031</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10228,7 +10228,7 @@
         <v>13719.5</v>
       </c>
       <c r="B1231">
-        <v>153.7250061035156</v>
+        <v>136.3317260742188</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10236,7 +10236,7 @@
         <v>13720</v>
       </c>
       <c r="B1232">
-        <v>162.3385772705078</v>
+        <v>127.6783065795898</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10244,7 +10244,7 @@
         <v>13720.5</v>
       </c>
       <c r="B1233">
-        <v>158.0793304443359</v>
+        <v>132.8925476074219</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -10252,7 +10252,7 @@
         <v>13721</v>
       </c>
       <c r="B1234">
-        <v>157.8503875732422</v>
+        <v>141.5472869873047</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10260,7 +10260,7 @@
         <v>13721.5</v>
       </c>
       <c r="B1235">
-        <v>146.0402984619141</v>
+        <v>131.9200439453125</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10268,7 +10268,7 @@
         <v>13722</v>
       </c>
       <c r="B1236">
-        <v>146.5212707519531</v>
+        <v>129.0937957763672</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10276,7 +10276,7 @@
         <v>13722.5</v>
       </c>
       <c r="B1237">
-        <v>141.2240447998047</v>
+        <v>135.4449310302734</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10284,7 +10284,7 @@
         <v>13723</v>
       </c>
       <c r="B1238">
-        <v>145.5347290039062</v>
+        <v>127.9357147216797</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10292,7 +10292,7 @@
         <v>13723.5</v>
       </c>
       <c r="B1239">
-        <v>145.8306884765625</v>
+        <v>130.324462890625</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10300,7 +10300,7 @@
         <v>13724</v>
       </c>
       <c r="B1240">
-        <v>146.0813293457031</v>
+        <v>126.4802780151367</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10308,7 +10308,7 @@
         <v>13724.5</v>
       </c>
       <c r="B1241">
-        <v>146.0813293457031</v>
+        <v>126.3767318725586</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10316,7 +10316,7 @@
         <v>13725</v>
       </c>
       <c r="B1242">
-        <v>145.3038635253906</v>
+        <v>127.6613311767578</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10324,7 +10324,7 @@
         <v>13725.5</v>
       </c>
       <c r="B1243">
-        <v>146.8314208984375</v>
+        <v>129.3227844238281</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10332,7 +10332,7 @@
         <v>13726</v>
       </c>
       <c r="B1244">
-        <v>146.2949523925781</v>
+        <v>129.8839721679688</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10340,7 +10340,7 @@
         <v>13726.5</v>
       </c>
       <c r="B1245">
-        <v>146.3809204101562</v>
+        <v>129.3724060058594</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10348,7 +10348,7 @@
         <v>13727</v>
       </c>
       <c r="B1246">
-        <v>147.2711486816406</v>
+        <v>128.6898803710938</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10356,7 +10356,7 @@
         <v>13727.5</v>
       </c>
       <c r="B1247">
-        <v>147.2711486816406</v>
+        <v>128.6898803710938</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10364,7 +10364,7 @@
         <v>13728</v>
       </c>
       <c r="B1248">
-        <v>147.5798034667969</v>
+        <v>125.393798828125</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10372,7 +10372,7 @@
         <v>13728.5</v>
       </c>
       <c r="B1249">
-        <v>147.6028289794922</v>
+        <v>124.3615798950195</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10740,7 +10740,7 @@
         <v>13751.5</v>
       </c>
       <c r="B1295">
-        <v>145.6195373535156</v>
+        <v>131.3438568115234</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10748,7 +10748,7 @@
         <v>13752</v>
       </c>
       <c r="B1296">
-        <v>144.6897888183594</v>
+        <v>133.8036499023438</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -10756,7 +10756,7 @@
         <v>13752.5</v>
       </c>
       <c r="B1297">
-        <v>141.9969787597656</v>
+        <v>132.5838928222656</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10764,7 +10764,7 @@
         <v>13753</v>
       </c>
       <c r="B1298">
-        <v>143.2224426269531</v>
+        <v>130.9424438476562</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10772,7 +10772,7 @@
         <v>13753.5</v>
       </c>
       <c r="B1299">
-        <v>145.5672302246094</v>
+        <v>129.4975738525391</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10780,7 +10780,7 @@
         <v>13754</v>
       </c>
       <c r="B1300">
-        <v>146.5346069335938</v>
+        <v>130.4649200439453</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10788,7 +10788,7 @@
         <v>13754.5</v>
       </c>
       <c r="B1301">
-        <v>146.2393646240234</v>
+        <v>130.169677734375</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10796,7 +10796,7 @@
         <v>13755</v>
       </c>
       <c r="B1302">
-        <v>144.5484466552734</v>
+        <v>129.13232421875</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10804,7 +10804,7 @@
         <v>13755.5</v>
       </c>
       <c r="B1303">
-        <v>144.5484466552734</v>
+        <v>124.5122680664062</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10812,7 +10812,7 @@
         <v>13756</v>
       </c>
       <c r="B1304">
-        <v>145.5672302246094</v>
+        <v>124.8774871826172</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -11052,7 +11052,7 @@
         <v>13771</v>
       </c>
       <c r="B1334">
-        <v>112.3219299316406</v>
+        <v>119.6101226806641</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11060,7 +11060,7 @@
         <v>13771.5</v>
       </c>
       <c r="B1335">
-        <v>109.8022918701172</v>
+        <v>108.0674285888672</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11068,7 +11068,7 @@
         <v>13772</v>
       </c>
       <c r="B1336">
-        <v>112.553466796875</v>
+        <v>114.4187393188477</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11076,7 +11076,7 @@
         <v>13772.5</v>
       </c>
       <c r="B1337">
-        <v>109.9415969848633</v>
+        <v>122.2345123291016</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11084,7 +11084,7 @@
         <v>13773</v>
       </c>
       <c r="B1338">
-        <v>111.1330947875977</v>
+        <v>115.5785827636719</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -11092,7 +11092,7 @@
         <v>13773.5</v>
       </c>
       <c r="B1339">
-        <v>104.9721832275391</v>
+        <v>109.6230316162109</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -11100,7 +11100,7 @@
         <v>13774</v>
       </c>
       <c r="B1340">
-        <v>102.6157531738281</v>
+        <v>110.3359375</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -11108,7 +11108,7 @@
         <v>13774.5</v>
       </c>
       <c r="B1341">
-        <v>104.8782577514648</v>
+        <v>108.9787063598633</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11948,7 +11948,7 @@
         <v>13827</v>
       </c>
       <c r="B1446">
-        <v>115.7334671020508</v>
+        <v>119.0339813232422</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11956,7 +11956,7 @@
         <v>13827.5</v>
       </c>
       <c r="B1447">
-        <v>117.3435516357422</v>
+        <v>120.7923889160156</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11964,7 +11964,7 @@
         <v>13828</v>
       </c>
       <c r="B1448">
-        <v>125.7576904296875</v>
+        <v>129.1143341064453</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11972,7 +11972,7 @@
         <v>13828.5</v>
       </c>
       <c r="B1449">
-        <v>119.5715713500977</v>
+        <v>120.647331237793</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -11980,7 +11980,7 @@
         <v>13829</v>
       </c>
       <c r="B1450">
-        <v>136.3384399414062</v>
+        <v>123.1151275634766</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -11988,7 +11988,7 @@
         <v>13829.5</v>
       </c>
       <c r="B1451">
-        <v>136.6089782714844</v>
+        <v>130.4568328857422</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -11996,7 +11996,7 @@
         <v>13830</v>
       </c>
       <c r="B1452">
-        <v>129.7220306396484</v>
+        <v>121.1797409057617</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12004,7 +12004,7 @@
         <v>13830.5</v>
       </c>
       <c r="B1453">
-        <v>128.5042572021484</v>
+        <v>116.9974365234375</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12012,7 +12012,7 @@
         <v>13831</v>
       </c>
       <c r="B1454">
-        <v>130.6786499023438</v>
+        <v>118.0741729736328</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12020,7 +12020,7 @@
         <v>13831.5</v>
       </c>
       <c r="B1455">
-        <v>129.8620452880859</v>
+        <v>113.9146881103516</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12028,7 +12028,7 @@
         <v>13832</v>
       </c>
       <c r="B1456">
-        <v>139.9734649658203</v>
+        <v>116.1744079589844</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12036,7 +12036,7 @@
         <v>13832.5</v>
       </c>
       <c r="B1457">
-        <v>139.5587463378906</v>
+        <v>115.7597045898438</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12044,7 +12044,7 @@
         <v>13833</v>
       </c>
       <c r="B1458">
-        <v>141.8835906982422</v>
+        <v>116.1430511474609</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12052,7 +12052,7 @@
         <v>13833.5</v>
       </c>
       <c r="B1459">
-        <v>141.2701721191406</v>
+        <v>119.4601821899414</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12060,7 +12060,7 @@
         <v>13834</v>
       </c>
       <c r="B1460">
-        <v>138.0780639648438</v>
+        <v>119.7806777954102</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12068,7 +12068,7 @@
         <v>13834.5</v>
       </c>
       <c r="B1461">
-        <v>134.0728149414062</v>
+        <v>121.7252655029297</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -12076,7 +12076,7 @@
         <v>13835</v>
       </c>
       <c r="B1462">
-        <v>140.0169830322266</v>
+        <v>129.2447509765625</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12084,7 +12084,7 @@
         <v>13835.5</v>
       </c>
       <c r="B1463">
-        <v>139.15966796875</v>
+        <v>125.9363403320312</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12092,7 +12092,7 @@
         <v>13836</v>
       </c>
       <c r="B1464">
-        <v>129.2673645019531</v>
+        <v>118.0591354370117</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12100,7 +12100,7 @@
         <v>13836.5</v>
       </c>
       <c r="B1465">
-        <v>115.3837509155273</v>
+        <v>116.2877807617188</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12108,7 +12108,7 @@
         <v>13837</v>
       </c>
       <c r="B1466">
-        <v>125.7632217407227</v>
+        <v>121.3936080932617</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12116,7 +12116,7 @@
         <v>13837.5</v>
       </c>
       <c r="B1467">
-        <v>140.9350280761719</v>
+        <v>124.3949508666992</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12124,7 +12124,7 @@
         <v>13838</v>
       </c>
       <c r="B1468">
-        <v>142.3056793212891</v>
+        <v>133.9754486083984</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12132,7 +12132,7 @@
         <v>13838.5</v>
       </c>
       <c r="B1469">
-        <v>139.2990264892578</v>
+        <v>131.4557952880859</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12140,7 +12140,7 @@
         <v>13839</v>
       </c>
       <c r="B1470">
-        <v>135.7959442138672</v>
+        <v>128.7028045654297</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12148,7 +12148,7 @@
         <v>13839.5</v>
       </c>
       <c r="B1471">
-        <v>125.7421417236328</v>
+        <v>133.2339019775391</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12156,7 +12156,7 @@
         <v>13840</v>
       </c>
       <c r="B1472">
-        <v>120.7549896240234</v>
+        <v>128.9536895751953</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12164,7 +12164,7 @@
         <v>13840.5</v>
       </c>
       <c r="B1473">
-        <v>116.4475631713867</v>
+        <v>127.6159744262695</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12172,7 +12172,7 @@
         <v>13841</v>
       </c>
       <c r="B1474">
-        <v>116.9323272705078</v>
+        <v>124.6003570556641</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12180,7 +12180,7 @@
         <v>13841.5</v>
       </c>
       <c r="B1475">
-        <v>120.3535537719727</v>
+        <v>120.7675247192383</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12700,7 +12700,7 @@
         <v>13874</v>
       </c>
       <c r="B1540">
-        <v>137.2193145751953</v>
+        <v>122.3873443603516</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12708,7 +12708,7 @@
         <v>13874.5</v>
       </c>
       <c r="B1541">
-        <v>137.2193145751953</v>
+        <v>127.2579498291016</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12716,7 +12716,7 @@
         <v>13875</v>
       </c>
       <c r="B1542">
-        <v>132.6797485351562</v>
+        <v>123.8849029541016</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12724,7 +12724,7 @@
         <v>13875.5</v>
       </c>
       <c r="B1543">
-        <v>123.3243255615234</v>
+        <v>133.8336181640625</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12732,7 +12732,7 @@
         <v>13876</v>
       </c>
       <c r="B1544">
-        <v>124.4164810180664</v>
+        <v>135.4037322998047</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12740,7 +12740,7 @@
         <v>13876.5</v>
       </c>
       <c r="B1545">
-        <v>127.5945129394531</v>
+        <v>140.7566680908203</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12748,7 +12748,7 @@
         <v>13877</v>
       </c>
       <c r="B1546">
-        <v>124.4048309326172</v>
+        <v>136.4114532470703</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12756,7 +12756,7 @@
         <v>13877.5</v>
       </c>
       <c r="B1547">
-        <v>126.139289855957</v>
+        <v>132.3251037597656</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12764,7 +12764,7 @@
         <v>13878</v>
       </c>
       <c r="B1548">
-        <v>120.6478652954102</v>
+        <v>124.9337615966797</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12772,7 +12772,7 @@
         <v>13878.5</v>
       </c>
       <c r="B1549">
-        <v>116.1797637939453</v>
+        <v>119.0339660644531</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12780,7 +12780,7 @@
         <v>13879</v>
       </c>
       <c r="B1550">
-        <v>114.6124420166016</v>
+        <v>117.4251708984375</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12788,7 +12788,7 @@
         <v>13879.5</v>
       </c>
       <c r="B1551">
-        <v>113.3948516845703</v>
+        <v>117.6121292114258</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12796,7 +12796,7 @@
         <v>13880</v>
       </c>
       <c r="B1552">
-        <v>113.9597854614258</v>
+        <v>119.007682800293</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12804,7 +12804,7 @@
         <v>13880.5</v>
       </c>
       <c r="B1553">
-        <v>113.9597854614258</v>
+        <v>119.007682800293</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12812,7 +12812,7 @@
         <v>13881</v>
       </c>
       <c r="B1554">
-        <v>113.1306228637695</v>
+        <v>119.007682800293</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12820,7 +12820,7 @@
         <v>13881.5</v>
       </c>
       <c r="B1555">
-        <v>114.6934051513672</v>
+        <v>119.007682800293</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12828,7 +12828,7 @@
         <v>13882</v>
       </c>
       <c r="B1556">
-        <v>117.9048233032227</v>
+        <v>122.7044296264648</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12836,7 +12836,7 @@
         <v>13882.5</v>
       </c>
       <c r="B1557">
-        <v>122.5997848510742</v>
+        <v>127.9139556884766</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12844,7 +12844,7 @@
         <v>13883</v>
       </c>
       <c r="B1558">
-        <v>127.6201782226562</v>
+        <v>131.2617492675781</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12852,7 +12852,7 @@
         <v>13883.5</v>
       </c>
       <c r="B1559">
-        <v>126.1246948242188</v>
+        <v>131.2610931396484</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12860,7 +12860,7 @@
         <v>13884</v>
       </c>
       <c r="B1560">
-        <v>125.3821258544922</v>
+        <v>131.6868896484375</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -12868,7 +12868,7 @@
         <v>13884.5</v>
       </c>
       <c r="B1561">
-        <v>126.1678314208984</v>
+        <v>131.2139282226562</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12876,7 +12876,7 @@
         <v>13885</v>
       </c>
       <c r="B1562">
-        <v>131.7844390869141</v>
+        <v>139.9869384765625</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12884,7 +12884,7 @@
         <v>13885.5</v>
       </c>
       <c r="B1563">
-        <v>121.7780227661133</v>
+        <v>132.3616638183594</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -12892,7 +12892,7 @@
         <v>13886</v>
       </c>
       <c r="B1564">
-        <v>123.9252471923828</v>
+        <v>120.6612777709961</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12900,7 +12900,7 @@
         <v>13886.5</v>
       </c>
       <c r="B1565">
-        <v>123.9252471923828</v>
+        <v>124.2951507568359</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -12908,7 +12908,7 @@
         <v>13887</v>
       </c>
       <c r="B1566">
-        <v>119.67041015625</v>
+        <v>124.29248046875</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12916,7 +12916,7 @@
         <v>13887.5</v>
       </c>
       <c r="B1567">
-        <v>118.5017013549805</v>
+        <v>132.0457458496094</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -13796,7 +13796,7 @@
         <v>13942.5</v>
       </c>
       <c r="B1677">
-        <v>135.7833557128906</v>
+        <v>128.7494049072266</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13804,7 +13804,7 @@
         <v>13943</v>
       </c>
       <c r="B1678">
-        <v>131.3416748046875</v>
+        <v>124.6460342407227</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13812,7 +13812,7 @@
         <v>13943.5</v>
       </c>
       <c r="B1679">
-        <v>141.71337890625</v>
+        <v>142.4849090576172</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13820,7 +13820,7 @@
         <v>13944</v>
       </c>
       <c r="B1680">
-        <v>141.2741851806641</v>
+        <v>123.4973831176758</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13828,7 +13828,7 @@
         <v>13944.5</v>
       </c>
       <c r="B1681">
-        <v>114.0452117919922</v>
+        <v>126.8117828369141</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13836,7 +13836,7 @@
         <v>13945</v>
       </c>
       <c r="B1682">
-        <v>116.7765808105469</v>
+        <v>124.311393737793</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13844,7 +13844,7 @@
         <v>13945.5</v>
       </c>
       <c r="B1683">
-        <v>135.8876800537109</v>
+        <v>121.5024185180664</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13852,7 +13852,7 @@
         <v>13946</v>
       </c>
       <c r="B1684">
-        <v>149.8250122070312</v>
+        <v>142.7948303222656</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13860,7 +13860,7 @@
         <v>13946.5</v>
       </c>
       <c r="B1685">
-        <v>151.8222045898438</v>
+        <v>128.5449981689453</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13868,7 +13868,7 @@
         <v>13947</v>
       </c>
       <c r="B1686">
-        <v>142.2227783203125</v>
+        <v>119.4319152832031</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13876,7 +13876,7 @@
         <v>13947.5</v>
       </c>
       <c r="B1687">
-        <v>137.3085479736328</v>
+        <v>120.6574249267578</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13884,7 +13884,7 @@
         <v>13948</v>
       </c>
       <c r="B1688">
-        <v>135.3038024902344</v>
+        <v>124.3994979858398</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13892,7 +13892,7 @@
         <v>13948.5</v>
       </c>
       <c r="B1689">
-        <v>141.9779815673828</v>
+        <v>132.0146026611328</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13900,7 +13900,7 @@
         <v>13949</v>
       </c>
       <c r="B1690">
-        <v>135.8085174560547</v>
+        <v>131.8407745361328</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13908,7 +13908,7 @@
         <v>13949.5</v>
       </c>
       <c r="B1691">
-        <v>137.2140045166016</v>
+        <v>129.6415405273438</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13916,7 +13916,7 @@
         <v>13950</v>
       </c>
       <c r="B1692">
-        <v>135.9623413085938</v>
+        <v>128.3899230957031</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13948,7 +13948,7 @@
         <v>13952</v>
       </c>
       <c r="B1696">
-        <v>140.7540893554688</v>
+        <v>131.8407745361328</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13956,7 +13956,7 @@
         <v>13952.5</v>
       </c>
       <c r="B1697">
-        <v>141.6129760742188</v>
+        <v>131.6495971679688</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -13964,7 +13964,7 @@
         <v>13953</v>
       </c>
       <c r="B1698">
-        <v>142.1595764160156</v>
+        <v>129.6415405273438</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13972,7 +13972,7 @@
         <v>13953.5</v>
       </c>
       <c r="B1699">
-        <v>141.6391906738281</v>
+        <v>123.8623809814453</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13980,7 +13980,7 @@
         <v>13954</v>
       </c>
       <c r="B1700">
-        <v>132.6704406738281</v>
+        <v>128.5348815917969</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13988,7 +13988,7 @@
         <v>13954.5</v>
       </c>
       <c r="B1701">
-        <v>132.6704406738281</v>
+        <v>128.5348815917969</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13996,7 +13996,7 @@
         <v>13955</v>
       </c>
       <c r="B1702">
-        <v>133.2508239746094</v>
+        <v>130.4692840576172</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14004,7 +14004,7 @@
         <v>13955.5</v>
       </c>
       <c r="B1703">
-        <v>134.1513671875</v>
+        <v>126.4122695922852</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -14012,7 +14012,7 @@
         <v>13956</v>
       </c>
       <c r="B1704">
-        <v>132.1960144042969</v>
+        <v>127.7059173583984</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14020,7 +14020,7 @@
         <v>13956.5</v>
       </c>
       <c r="B1705">
-        <v>131.0381469726562</v>
+        <v>124.1695861816406</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -14900,7 +14900,7 @@
         <v>14011.5</v>
       </c>
       <c r="B1815">
-        <v>150.1491546630859</v>
+        <v>135.8657073974609</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -14908,7 +14908,7 @@
         <v>14012</v>
       </c>
       <c r="B1816">
-        <v>147.0533142089844</v>
+        <v>138.5965118408203</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14916,7 +14916,7 @@
         <v>14012.5</v>
       </c>
       <c r="B1817">
-        <v>150.9799194335938</v>
+        <v>147.2920989990234</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14924,7 +14924,7 @@
         <v>14013</v>
       </c>
       <c r="B1818">
-        <v>145.2117919921875</v>
+        <v>139.7298126220703</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14932,7 +14932,7 @@
         <v>14013.5</v>
       </c>
       <c r="B1819">
-        <v>149.7500610351562</v>
+        <v>145.3374176025391</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14940,7 +14940,7 @@
         <v>14014</v>
       </c>
       <c r="B1820">
-        <v>152.6003570556641</v>
+        <v>138.2242584228516</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14948,7 +14948,7 @@
         <v>14014.5</v>
       </c>
       <c r="B1821">
-        <v>147.6953277587891</v>
+        <v>138.8421630859375</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -14956,7 +14956,7 @@
         <v>14015</v>
       </c>
       <c r="B1822">
-        <v>153.1753845214844</v>
+        <v>137.2654571533203</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14964,7 +14964,7 @@
         <v>14015.5</v>
       </c>
       <c r="B1823">
-        <v>139.6035766601562</v>
+        <v>127.2860412597656</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -14972,7 +14972,7 @@
         <v>14016</v>
       </c>
       <c r="B1824">
-        <v>135.5181427001953</v>
+        <v>140.0803985595703</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
@@ -14980,7 +14980,7 @@
         <v>14016.5</v>
       </c>
       <c r="B1825">
-        <v>136.8566436767578</v>
+        <v>142.4765167236328</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14988,7 +14988,7 @@
         <v>14017</v>
       </c>
       <c r="B1826">
-        <v>136.4960632324219</v>
+        <v>142.3329162597656</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -15236,7 +15236,7 @@
         <v>14032.5</v>
       </c>
       <c r="B1857">
-        <v>136.8342895507812</v>
+        <v>129.2786712646484</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15244,7 +15244,7 @@
         <v>14033</v>
       </c>
       <c r="B1858">
-        <v>143.6694641113281</v>
+        <v>128.4135589599609</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15252,7 +15252,7 @@
         <v>14033.5</v>
       </c>
       <c r="B1859">
-        <v>146.9246826171875</v>
+        <v>137.4097595214844</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15260,7 +15260,7 @@
         <v>14034</v>
       </c>
       <c r="B1860">
-        <v>142.8276824951172</v>
+        <v>130.1878051757812</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15268,7 +15268,7 @@
         <v>14034.5</v>
       </c>
       <c r="B1861">
-        <v>136.604736328125</v>
+        <v>128.6293792724609</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15276,7 +15276,7 @@
         <v>14035</v>
       </c>
       <c r="B1862">
-        <v>136.9927978515625</v>
+        <v>125.438720703125</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15284,7 +15284,7 @@
         <v>14035.5</v>
       </c>
       <c r="B1863">
-        <v>136.9927978515625</v>
+        <v>124.8043212890625</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15292,7 +15292,7 @@
         <v>14036</v>
       </c>
       <c r="B1864">
-        <v>147.0558929443359</v>
+        <v>145.1230773925781</v>
       </c>
     </row>
     <row r="1865" spans="1:2">
@@ -15300,7 +15300,7 @@
         <v>14036.5</v>
       </c>
       <c r="B1865">
-        <v>140.0549011230469</v>
+        <v>132.1699829101562</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15308,7 +15308,7 @@
         <v>14037</v>
       </c>
       <c r="B1866">
-        <v>142.7019348144531</v>
+        <v>130.2153015136719</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15316,7 +15316,7 @@
         <v>14037.5</v>
       </c>
       <c r="B1867">
-        <v>136.9697418212891</v>
+        <v>128.3600006103516</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -15324,7 +15324,7 @@
         <v>14038</v>
       </c>
       <c r="B1868">
-        <v>136.9697418212891</v>
+        <v>125.3867034912109</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15332,7 +15332,7 @@
         <v>14038.5</v>
       </c>
       <c r="B1869">
-        <v>136.6277923583984</v>
+        <v>125.0737228393555</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15340,7 +15340,7 @@
         <v>14039</v>
       </c>
       <c r="B1870">
-        <v>138.0672302246094</v>
+        <v>128.3818206787109</v>
       </c>
     </row>
     <row r="1871" spans="1:2">
@@ -15348,7 +15348,7 @@
         <v>14039.5</v>
       </c>
       <c r="B1871">
-        <v>139.602783203125</v>
+        <v>141.3350982666016</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -15356,7 +15356,7 @@
         <v>14040</v>
       </c>
       <c r="B1872">
-        <v>144.4424743652344</v>
+        <v>135.4683990478516</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15364,7 +15364,7 @@
         <v>14040.5</v>
       </c>
       <c r="B1873">
-        <v>150.4106140136719</v>
+        <v>139.8323669433594</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15372,7 +15372,7 @@
         <v>14041</v>
       </c>
       <c r="B1874">
-        <v>144.4424743652344</v>
+        <v>135.4683990478516</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15380,7 +15380,7 @@
         <v>14041.5</v>
       </c>
       <c r="B1875">
-        <v>148.7681732177734</v>
+        <v>134.6922760009766</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15388,7 +15388,7 @@
         <v>14042</v>
       </c>
       <c r="B1876">
-        <v>141.6955718994141</v>
+        <v>132.7055511474609</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15396,7 +15396,7 @@
         <v>14042.5</v>
       </c>
       <c r="B1877">
-        <v>140.8366851806641</v>
+        <v>132.896728515625</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15404,7 +15404,7 @@
         <v>14043</v>
       </c>
       <c r="B1878">
-        <v>140.8366851806641</v>
+        <v>132.896728515625</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15412,7 +15412,7 @@
         <v>14043.5</v>
       </c>
       <c r="B1879">
-        <v>149.0594177246094</v>
+        <v>135.3013305664062</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15420,7 +15420,7 @@
         <v>14044</v>
       </c>
       <c r="B1880">
-        <v>145.9483795166016</v>
+        <v>135.3280487060547</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15428,7 +15428,7 @@
         <v>14044.5</v>
       </c>
       <c r="B1881">
-        <v>150.6657257080078</v>
+        <v>140.8627471923828</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15436,7 +15436,7 @@
         <v>14045</v>
       </c>
       <c r="B1882">
-        <v>147.1663208007812</v>
+        <v>138.2665252685547</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15444,7 +15444,7 @@
         <v>14045.5</v>
       </c>
       <c r="B1883">
-        <v>149.268798828125</v>
+        <v>136.1148986816406</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15452,7 +15452,7 @@
         <v>14046</v>
       </c>
       <c r="B1884">
-        <v>144.8030853271484</v>
+        <v>133.2543487548828</v>
       </c>
     </row>
     <row r="1885" spans="1:2">
@@ -15460,7 +15460,7 @@
         <v>14046.5</v>
       </c>
       <c r="B1885">
-        <v>134.8996276855469</v>
+        <v>124.6321258544922</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15468,7 +15468,7 @@
         <v>14047</v>
       </c>
       <c r="B1886">
-        <v>133.4549102783203</v>
+        <v>122.5168838500977</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15476,7 +15476,7 @@
         <v>14047.5</v>
       </c>
       <c r="B1887">
-        <v>136.5295104980469</v>
+        <v>126.4058151245117</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15484,7 +15484,7 @@
         <v>14048</v>
       </c>
       <c r="B1888">
-        <v>136.7146759033203</v>
+        <v>125.2142333984375</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15492,7 +15492,7 @@
         <v>14048.5</v>
       </c>
       <c r="B1889">
-        <v>136.7753295898438</v>
+        <v>125.1264266967773</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15500,7 +15500,7 @@
         <v>14049</v>
       </c>
       <c r="B1890">
-        <v>132.9117584228516</v>
+        <v>127.4287872314453</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15508,7 +15508,7 @@
         <v>14049.5</v>
       </c>
       <c r="B1891">
-        <v>134.1950531005859</v>
+        <v>141.7958679199219</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15516,7 +15516,7 @@
         <v>14050</v>
       </c>
       <c r="B1892">
-        <v>124.5252075195312</v>
+        <v>126.1841812133789</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15524,7 +15524,7 @@
         <v>14050.5</v>
       </c>
       <c r="B1893">
-        <v>128.9773864746094</v>
+        <v>129.3777313232422</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15532,7 +15532,7 @@
         <v>14051</v>
       </c>
       <c r="B1894">
-        <v>128.9526977539062</v>
+        <v>134.3018646240234</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15540,7 +15540,7 @@
         <v>14051.5</v>
       </c>
       <c r="B1895">
-        <v>137.0140075683594</v>
+        <v>120.4256591796875</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15548,7 +15548,7 @@
         <v>14052</v>
       </c>
       <c r="B1896">
-        <v>150.9424743652344</v>
+        <v>135.4539031982422</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15556,7 +15556,7 @@
         <v>14052.5</v>
       </c>
       <c r="B1897">
-        <v>151.2792510986328</v>
+        <v>133.6157989501953</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15564,7 +15564,7 @@
         <v>14053</v>
       </c>
       <c r="B1898">
-        <v>151.2792510986328</v>
+        <v>135.8997039794922</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15572,7 +15572,7 @@
         <v>14053.5</v>
       </c>
       <c r="B1899">
-        <v>150.4295959472656</v>
+        <v>135.4714050292969</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15580,7 +15580,7 @@
         <v>14054</v>
       </c>
       <c r="B1900">
-        <v>151.2792510986328</v>
+        <v>135.8997039794922</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15588,7 +15588,7 @@
         <v>14054.5</v>
       </c>
       <c r="B1901">
-        <v>148.7445983886719</v>
+        <v>138.5039215087891</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15596,7 +15596,7 @@
         <v>14055</v>
       </c>
       <c r="B1902">
-        <v>149.6424713134766</v>
+        <v>133.4035797119141</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15604,7 +15604,7 @@
         <v>14055.5</v>
       </c>
       <c r="B1903">
-        <v>149.6424713134766</v>
+        <v>135.6874847412109</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15836,7 +15836,7 @@
         <v>14070</v>
       </c>
       <c r="B1932">
-        <v>145.6426849365234</v>
+        <v>134.8873748779297</v>
       </c>
     </row>
     <row r="1933" spans="1:2">
@@ -15844,7 +15844,7 @@
         <v>14070.5</v>
       </c>
       <c r="B1933">
-        <v>143.0392913818359</v>
+        <v>130.4898529052734</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15852,7 +15852,7 @@
         <v>14071</v>
       </c>
       <c r="B1934">
-        <v>143.5814971923828</v>
+        <v>131.0320587158203</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15860,7 +15860,7 @@
         <v>14071.5</v>
       </c>
       <c r="B1935">
-        <v>135.7403106689453</v>
+        <v>127.1305770874023</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -15868,7 +15868,7 @@
         <v>14072</v>
       </c>
       <c r="B1936">
-        <v>137.0460968017578</v>
+        <v>125.4689331054688</v>
       </c>
     </row>
     <row r="1937" spans="1:2">
@@ -15876,7 +15876,7 @@
         <v>14072.5</v>
       </c>
       <c r="B1937">
-        <v>137.0460968017578</v>
+        <v>125.4689331054688</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15884,7 +15884,7 @@
         <v>14073</v>
       </c>
       <c r="B1938">
-        <v>137.3585510253906</v>
+        <v>129.4736328125</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -15892,7 +15892,7 @@
         <v>14073.5</v>
       </c>
       <c r="B1939">
-        <v>144.4313354492188</v>
+        <v>135.4282073974609</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -15900,7 +15900,7 @@
         <v>14074</v>
       </c>
       <c r="B1940">
-        <v>142.1343536376953</v>
+        <v>127.9659118652344</v>
       </c>
     </row>
     <row r="1941" spans="1:2">
@@ -15908,7 +15908,7 @@
         <v>14074.5</v>
       </c>
       <c r="B1941">
-        <v>141.2200164794922</v>
+        <v>123.0584716796875</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15916,7 +15916,7 @@
         <v>14075</v>
       </c>
       <c r="B1942">
-        <v>141.8904724121094</v>
+        <v>122.2753829956055</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15924,7 +15924,7 @@
         <v>14075.5</v>
       </c>
       <c r="B1943">
-        <v>141.1302185058594</v>
+        <v>125.5661773681641</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15932,7 +15932,7 @@
         <v>14076</v>
       </c>
       <c r="B1944">
-        <v>141.3512725830078</v>
+        <v>127.1828002929688</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -16116,7 +16116,7 @@
         <v>14087.5</v>
       </c>
       <c r="B1967">
-        <v>148.6920623779297</v>
+        <v>128.1686401367188</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16124,7 +16124,7 @@
         <v>14088</v>
       </c>
       <c r="B1968">
-        <v>148.6920623779297</v>
+        <v>128.1686401367188</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16132,7 +16132,7 @@
         <v>14088.5</v>
       </c>
       <c r="B1969">
-        <v>148.6920623779297</v>
+        <v>128.1686401367188</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16140,7 +16140,7 @@
         <v>14089</v>
       </c>
       <c r="B1970">
-        <v>148.5691680908203</v>
+        <v>128.0457611083984</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16148,7 +16148,7 @@
         <v>14089.5</v>
       </c>
       <c r="B1971">
-        <v>148.7057800292969</v>
+        <v>128.9918060302734</v>
       </c>
     </row>
     <row r="1972" spans="1:2">
@@ -16156,7 +16156,7 @@
         <v>14090</v>
       </c>
       <c r="B1972">
-        <v>148.7057800292969</v>
+        <v>128.9918060302734</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16164,7 +16164,7 @@
         <v>14090.5</v>
       </c>
       <c r="B1973">
-        <v>147.8749084472656</v>
+        <v>127.8818588256836</v>
       </c>
     </row>
     <row r="1974" spans="1:2">
@@ -16172,7 +16172,7 @@
         <v>14091</v>
       </c>
       <c r="B1974">
-        <v>148.6920623779297</v>
+        <v>128.1686401367188</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16180,7 +16180,7 @@
         <v>14091.5</v>
       </c>
       <c r="B1975">
-        <v>147.4719390869141</v>
+        <v>128.2246551513672</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16188,7 +16188,7 @@
         <v>14092</v>
       </c>
       <c r="B1976">
-        <v>147.4719390869141</v>
+        <v>128.2246551513672</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16196,7 +16196,7 @@
         <v>14092.5</v>
       </c>
       <c r="B1977">
-        <v>147.4719390869141</v>
+        <v>128.2246551513672</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -16204,7 +16204,7 @@
         <v>14093</v>
       </c>
       <c r="B1978">
-        <v>147.4719390869141</v>
+        <v>128.2246551513672</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16212,7 +16212,7 @@
         <v>14093.5</v>
       </c>
       <c r="B1979">
-        <v>148.6920623779297</v>
+        <v>128.1686401367188</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16220,7 +16220,7 @@
         <v>14094</v>
       </c>
       <c r="B1980">
-        <v>148.6920623779297</v>
+        <v>128.1686401367188</v>
       </c>
     </row>
     <row r="1981" spans="1:2">
@@ -16228,7 +16228,7 @@
         <v>14094.5</v>
       </c>
       <c r="B1981">
-        <v>148.5691680908203</v>
+        <v>128.0457611083984</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16236,7 +16236,7 @@
         <v>14095</v>
       </c>
       <c r="B1982">
-        <v>147.9607849121094</v>
+        <v>131.4594268798828</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16244,7 +16244,7 @@
         <v>14095.5</v>
       </c>
       <c r="B1983">
-        <v>142.4138031005859</v>
+        <v>129.9570159912109</v>
       </c>
     </row>
     <row r="1984" spans="1:2">
@@ -16252,7 +16252,7 @@
         <v>14096</v>
       </c>
       <c r="B1984">
-        <v>142.8348083496094</v>
+        <v>128.2829284667969</v>
       </c>
     </row>
     <row r="1985" spans="1:2">
@@ -16260,7 +16260,7 @@
         <v>14096.5</v>
       </c>
       <c r="B1985">
-        <v>142.7452850341797</v>
+        <v>128.2829284667969</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16268,7 +16268,7 @@
         <v>14097</v>
       </c>
       <c r="B1986">
-        <v>142.1038055419922</v>
+        <v>129.0660095214844</v>
       </c>
     </row>
     <row r="1987" spans="1:2">
@@ -16276,7 +16276,7 @@
         <v>14097.5</v>
       </c>
       <c r="B1987">
-        <v>142.1038055419922</v>
+        <v>129.0660095214844</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16284,7 +16284,7 @@
         <v>14098</v>
       </c>
       <c r="B1988">
-        <v>142.1933288574219</v>
+        <v>129.0660095214844</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16292,7 +16292,7 @@
         <v>14098.5</v>
       </c>
       <c r="B1989">
-        <v>144.0534973144531</v>
+        <v>128.0179290771484</v>
       </c>
     </row>
     <row r="1990" spans="1:2">
@@ -16340,7 +16340,7 @@
         <v>14101.5</v>
       </c>
       <c r="B1995">
-        <v>144.9286804199219</v>
+        <v>132.4718627929688</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16348,7 +16348,7 @@
         <v>14102</v>
       </c>
       <c r="B1996">
-        <v>144.1686553955078</v>
+        <v>128.1330871582031</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16356,7 +16356,7 @@
         <v>14102.5</v>
       </c>
       <c r="B1997">
-        <v>145.5932159423828</v>
+        <v>128.1330871582031</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16364,7 +16364,7 @@
         <v>14103</v>
       </c>
       <c r="B1998">
-        <v>143.7330474853516</v>
+        <v>129.18115234375</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -16372,7 +16372,7 @@
         <v>14103.5</v>
       </c>
       <c r="B1999">
-        <v>143.7330474853516</v>
+        <v>128.7639617919922</v>
       </c>
     </row>
     <row r="2000" spans="1:2">
@@ -16380,7 +16380,7 @@
         <v>14104</v>
       </c>
       <c r="B2000">
-        <v>145.5932159423828</v>
+        <v>128.1330871582031</v>
       </c>
     </row>
     <row r="2001" spans="1:2">
@@ -16388,7 +16388,7 @@
         <v>14104.5</v>
       </c>
       <c r="B2001">
-        <v>144.9286804199219</v>
+        <v>128.8641510009766</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16396,7 +16396,7 @@
         <v>14105</v>
       </c>
       <c r="B2002">
-        <v>146.1488037109375</v>
+        <v>132.4158477783203</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16404,7 +16404,7 @@
         <v>14105.5</v>
       </c>
       <c r="B2003">
-        <v>146.1488037109375</v>
+        <v>132.4158477783203</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16412,7 +16412,7 @@
         <v>14106</v>
       </c>
       <c r="B2004">
-        <v>144.9286804199219</v>
+        <v>132.4718627929688</v>
       </c>
     </row>
     <row r="2005" spans="1:2">
@@ -16420,7 +16420,7 @@
         <v>14106.5</v>
       </c>
       <c r="B2005">
-        <v>144.9286804199219</v>
+        <v>132.4718627929688</v>
       </c>
     </row>
     <row r="2006" spans="1:2">
@@ -16428,7 +16428,7 @@
         <v>14107</v>
       </c>
       <c r="B2006">
-        <v>146.1488037109375</v>
+        <v>132.4158477783203</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16436,7 +16436,7 @@
         <v>14107.5</v>
       </c>
       <c r="B2007">
-        <v>145.4455413818359</v>
+        <v>127.6591415405273</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16444,7 +16444,7 @@
         <v>14108</v>
       </c>
       <c r="B2008">
-        <v>145.4455413818359</v>
+        <v>131.2668609619141</v>
       </c>
     </row>
     <row r="2009" spans="1:2">
@@ -16452,7 +16452,7 @@
         <v>14108.5</v>
       </c>
       <c r="B2009">
-        <v>151.0022583007812</v>
+        <v>134.7799377441406</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16460,7 +16460,7 @@
         <v>14109</v>
       </c>
       <c r="B2010">
-        <v>150.352783203125</v>
+        <v>133.8513946533203</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16468,7 +16468,7 @@
         <v>14109.5</v>
       </c>
       <c r="B2011">
-        <v>149.2555389404297</v>
+        <v>133.7730407714844</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16476,7 +16476,7 @@
         <v>14110</v>
       </c>
       <c r="B2012">
-        <v>148.4724578857422</v>
+        <v>132.9899597167969</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16484,7 +16484,7 @@
         <v>14110.5</v>
       </c>
       <c r="B2013">
-        <v>149.8970184326172</v>
+        <v>133.2472076416016</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16492,7 +16492,7 @@
         <v>14111</v>
       </c>
       <c r="B2014">
-        <v>148.2803802490234</v>
+        <v>131.6305999755859</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16500,7 +16500,7 @@
         <v>14111.5</v>
       </c>
       <c r="B2015">
-        <v>144.6847839355469</v>
+        <v>123.1736221313477</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16508,7 +16508,7 @@
         <v>14112</v>
       </c>
       <c r="B2016">
-        <v>144.6847839355469</v>
+        <v>126.7813720703125</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16516,7 +16516,7 @@
         <v>14112.5</v>
       </c>
       <c r="B2017">
-        <v>150.4756622314453</v>
+        <v>133.9742736816406</v>
       </c>
     </row>
     <row r="2018" spans="1:2">
@@ -16524,7 +16524,7 @@
         <v>14113</v>
       </c>
       <c r="B2018">
-        <v>152.4012756347656</v>
+        <v>136.0506439208984</v>
       </c>
     </row>
     <row r="2019" spans="1:2">
@@ -16532,7 +16532,7 @@
         <v>14113.5</v>
       </c>
       <c r="B2019">
-        <v>150.9030456542969</v>
+        <v>136.6990814208984</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16540,7 +16540,7 @@
         <v>14114</v>
       </c>
       <c r="B2020">
-        <v>151.1992340087891</v>
+        <v>137.1352233886719</v>
       </c>
     </row>
     <row r="2021" spans="1:2">
@@ -16548,7 +16548,7 @@
         <v>14114.5</v>
       </c>
       <c r="B2021">
-        <v>152.6903686523438</v>
+        <v>136.7804412841797</v>
       </c>
     </row>
     <row r="2022" spans="1:2">
@@ -16556,7 +16556,7 @@
         <v>14115</v>
       </c>
       <c r="B2022">
-        <v>152.6903686523438</v>
+        <v>136.7804412841797</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16564,7 +16564,7 @@
         <v>14115.5</v>
       </c>
       <c r="B2023">
-        <v>151.8407135009766</v>
+        <v>136.3521423339844</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -16572,7 +16572,7 @@
         <v>14116</v>
       </c>
       <c r="B2024">
-        <v>151.1992340087891</v>
+        <v>137.1352233886719</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16580,7 +16580,7 @@
         <v>14116.5</v>
       </c>
       <c r="B2025">
-        <v>146.1496276855469</v>
+        <v>134.5255889892578</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16588,7 +16588,7 @@
         <v>14117</v>
       </c>
       <c r="B2026">
-        <v>145.6307983398438</v>
+        <v>134.6411437988281</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -16596,7 +16596,7 @@
         <v>14117.5</v>
       </c>
       <c r="B2027">
-        <v>145.3395538330078</v>
+        <v>134.0320892333984</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -16604,7 +16604,7 @@
         <v>14118</v>
       </c>
       <c r="B2028">
-        <v>145.5696105957031</v>
+        <v>133.2672882080078</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16612,7 +16612,7 @@
         <v>14118.5</v>
       </c>
       <c r="B2029">
-        <v>147.5504150390625</v>
+        <v>130.6532440185547</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16620,7 +16620,7 @@
         <v>14119</v>
       </c>
       <c r="B2030">
-        <v>149.2986602783203</v>
+        <v>131.6138610839844</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16628,7 +16628,7 @@
         <v>14119.5</v>
       </c>
       <c r="B2031">
-        <v>148.8341674804688</v>
+        <v>129.7774658203125</v>
       </c>
     </row>
     <row r="2032" spans="1:2">
@@ -16636,7 +16636,7 @@
         <v>14120</v>
       </c>
       <c r="B2032">
-        <v>144.9244384765625</v>
+        <v>134.4613800048828</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16644,7 +16644,7 @@
         <v>14120.5</v>
       </c>
       <c r="B2033">
-        <v>146.6468048095703</v>
+        <v>141.1895446777344</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -16652,7 +16652,7 @@
         <v>14121</v>
       </c>
       <c r="B2034">
-        <v>140.8786773681641</v>
+        <v>133.8845520019531</v>
       </c>
     </row>
     <row r="2035" spans="1:2">
@@ -16660,7 +16660,7 @@
         <v>14121.5</v>
       </c>
       <c r="B2035">
-        <v>125.2416076660156</v>
+        <v>133.8845520019531</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -16668,7 +16668,7 @@
         <v>14122</v>
       </c>
       <c r="B2036">
-        <v>120.8323974609375</v>
+        <v>133.6164703369141</v>
       </c>
     </row>
     <row r="2037" spans="1:2">
@@ -16676,7 +16676,7 @@
         <v>14122.5</v>
       </c>
       <c r="B2037">
-        <v>123.7206115722656</v>
+        <v>136.504638671875</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16684,7 +16684,7 @@
         <v>14123</v>
       </c>
       <c r="B2038">
-        <v>125.2265090942383</v>
+        <v>136.3642883300781</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16692,7 +16692,7 @@
         <v>14123.5</v>
       </c>
       <c r="B2039">
-        <v>129.7401123046875</v>
+        <v>138.4071807861328</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16700,7 +16700,7 @@
         <v>14124</v>
       </c>
       <c r="B2040">
-        <v>138.4374694824219</v>
+        <v>146.6910552978516</v>
       </c>
     </row>
     <row r="2041" spans="1:2">
@@ -16708,7 +16708,7 @@
         <v>14124.5</v>
       </c>
       <c r="B2041">
-        <v>138.0172271728516</v>
+        <v>140.1062469482422</v>
       </c>
     </row>
     <row r="2042" spans="1:2">
@@ -16716,7 +16716,7 @@
         <v>14125</v>
       </c>
       <c r="B2042">
-        <v>139.6292877197266</v>
+        <v>136.7804412841797</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16724,7 +16724,7 @@
         <v>14125.5</v>
       </c>
       <c r="B2043">
-        <v>138.2047271728516</v>
+        <v>137.5635223388672</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16732,7 +16732,7 @@
         <v>14126</v>
       </c>
       <c r="B2044">
-        <v>138.2047271728516</v>
+        <v>137.5635223388672</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16740,7 +16740,7 @@
         <v>14126.5</v>
       </c>
       <c r="B2045">
-        <v>138.2047271728516</v>
+        <v>136.7804412841797</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16748,7 +16748,7 @@
         <v>14127</v>
       </c>
       <c r="B2046">
-        <v>139.164794921875</v>
+        <v>132.6601409912109</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16756,7 +16756,7 @@
         <v>14127.5</v>
       </c>
       <c r="B2047">
-        <v>139.6292877197266</v>
+        <v>136.7804412841797</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16764,7 +16764,7 @@
         <v>14128</v>
       </c>
       <c r="B2048">
-        <v>138.7796325683594</v>
+        <v>136.3521423339844</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16772,7 +16772,7 @@
         <v>14128.5</v>
       </c>
       <c r="B2049">
-        <v>138.7796325683594</v>
+        <v>136.3521423339844</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16780,7 +16780,7 @@
         <v>14129</v>
       </c>
       <c r="B2050">
-        <v>140.2843017578125</v>
+        <v>137.8568115234375</v>
       </c>
     </row>
     <row r="2051" spans="1:2">
@@ -16788,7 +16788,7 @@
         <v>14129.5</v>
       </c>
       <c r="B2051">
-        <v>140.2843017578125</v>
+        <v>137.8568115234375</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -16796,7 +16796,7 @@
         <v>14130</v>
       </c>
       <c r="B2052">
-        <v>138.7796325683594</v>
+        <v>136.3521423339844</v>
       </c>
     </row>
     <row r="2053" spans="1:2">
@@ -16804,7 +16804,7 @@
         <v>14130.5</v>
       </c>
       <c r="B2053">
-        <v>138.7796325683594</v>
+        <v>136.3521423339844</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16812,7 +16812,7 @@
         <v>14131</v>
       </c>
       <c r="B2054">
-        <v>138.7796325683594</v>
+        <v>136.3521423339844</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16820,7 +16820,7 @@
         <v>14131.5</v>
       </c>
       <c r="B2055">
-        <v>138.7796325683594</v>
+        <v>136.3521423339844</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -16828,7 +16828,7 @@
         <v>14132</v>
       </c>
       <c r="B2056">
-        <v>138.031982421875</v>
+        <v>138.0479888916016</v>
       </c>
     </row>
     <row r="2057" spans="1:2">
@@ -16836,7 +16836,7 @@
         <v>14132.5</v>
       </c>
       <c r="B2057">
-        <v>140.2843017578125</v>
+        <v>137.8568115234375</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16844,7 +16844,7 @@
         <v>14133</v>
       </c>
       <c r="B2058">
-        <v>139.6292877197266</v>
+        <v>136.7804412841797</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16852,7 +16852,7 @@
         <v>14133.5</v>
       </c>
       <c r="B2059">
-        <v>131.2140808105469</v>
+        <v>140.1343078613281</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16860,7 +16860,7 @@
         <v>14134</v>
       </c>
       <c r="B2060">
-        <v>127.8299331665039</v>
+        <v>141.6701354980469</v>
       </c>
     </row>
     <row r="2061" spans="1:2">
@@ -16868,7 +16868,7 @@
         <v>14134.5</v>
       </c>
       <c r="B2061">
-        <v>125.2265090942383</v>
+        <v>136.3642883300781</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -16876,7 +16876,7 @@
         <v>14135</v>
       </c>
       <c r="B2062">
-        <v>126.9986038208008</v>
+        <v>139.7695007324219</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16884,7 +16884,7 @@
         <v>14135.5</v>
       </c>
       <c r="B2063">
-        <v>129.7401123046875</v>
+        <v>138.4071807861328</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16892,7 +16892,7 @@
         <v>14136</v>
       </c>
       <c r="B2064">
-        <v>131.1646728515625</v>
+        <v>136.1331634521484</v>
       </c>
     </row>
     <row r="2065" spans="1:2">
@@ -16900,7 +16900,7 @@
         <v>14136.5</v>
       </c>
       <c r="B2065">
-        <v>135.0289611816406</v>
+        <v>137.1750640869141</v>
       </c>
     </row>
     <row r="2066" spans="1:2">
@@ -16908,7 +16908,7 @@
         <v>14137</v>
       </c>
       <c r="B2066">
-        <v>141.1701049804688</v>
+        <v>141.8184967041016</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -16916,7 +16916,7 @@
         <v>14137.5</v>
       </c>
       <c r="B2067">
-        <v>142.4759216308594</v>
+        <v>139.8743286132812</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -16924,7 +16924,7 @@
         <v>14138</v>
       </c>
       <c r="B2068">
-        <v>141.0513610839844</v>
+        <v>139.8743286132812</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16932,7 +16932,7 @@
         <v>14138.5</v>
       </c>
       <c r="B2069">
-        <v>141.1701049804688</v>
+        <v>140.6276550292969</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -16940,7 +16940,7 @@
         <v>14139</v>
       </c>
       <c r="B2070">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2071" spans="1:2">
@@ -16948,7 +16948,7 @@
         <v>14139.5</v>
       </c>
       <c r="B2071">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2072" spans="1:2">
@@ -16956,7 +16956,7 @@
         <v>14140</v>
       </c>
       <c r="B2072">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -16964,7 +16964,7 @@
         <v>14140.5</v>
       </c>
       <c r="B2073">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -16972,7 +16972,7 @@
         <v>14141</v>
       </c>
       <c r="B2074">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -16980,7 +16980,7 @@
         <v>14141.5</v>
       </c>
       <c r="B2075">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -16988,7 +16988,7 @@
         <v>14142</v>
       </c>
       <c r="B2076">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2077" spans="1:2">
@@ -16996,7 +16996,7 @@
         <v>14142.5</v>
       </c>
       <c r="B2077">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -17004,7 +17004,7 @@
         <v>14143</v>
       </c>
       <c r="B2078">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17012,7 +17012,7 @@
         <v>14143.5</v>
       </c>
       <c r="B2079">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17020,7 +17020,7 @@
         <v>14144</v>
       </c>
       <c r="B2080">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2081" spans="1:2">
@@ -17028,7 +17028,7 @@
         <v>14144.5</v>
       </c>
       <c r="B2081">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17036,7 +17036,7 @@
         <v>14145</v>
       </c>
       <c r="B2082">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17044,7 +17044,7 @@
         <v>14145.5</v>
       </c>
       <c r="B2083">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -17052,7 +17052,7 @@
         <v>14146</v>
       </c>
       <c r="B2084">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17060,7 +17060,7 @@
         <v>14146.5</v>
       </c>
       <c r="B2085">
-        <v>139.0969848632812</v>
+        <v>140.4940795898438</v>
       </c>
     </row>
     <row r="2086" spans="1:2">
@@ -17068,7 +17068,7 @@
         <v>14147</v>
       </c>
       <c r="B2086">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2087" spans="1:2">
@@ -17076,7 +17076,7 @@
         <v>14147.5</v>
       </c>
       <c r="B2087">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17084,7 +17084,7 @@
         <v>14148</v>
       </c>
       <c r="B2088">
-        <v>139.0969848632812</v>
+        <v>143.2207336425781</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17092,7 +17092,7 @@
         <v>14148.5</v>
       </c>
       <c r="B2089">
-        <v>137.6724243164062</v>
+        <v>144.0038146972656</v>
       </c>
     </row>
     <row r="2090" spans="1:2">
@@ -17100,7 +17100,7 @@
         <v>14149</v>
       </c>
       <c r="B2090">
-        <v>137.6724243164062</v>
+        <v>144.0038146972656</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17108,7 +17108,7 @@
         <v>14149.5</v>
       </c>
       <c r="B2091">
-        <v>137.6724243164062</v>
+        <v>144.0038146972656</v>
       </c>
     </row>
     <row r="2092" spans="1:2">
@@ -17116,7 +17116,7 @@
         <v>14150</v>
       </c>
       <c r="B2092">
-        <v>137.6724243164062</v>
+        <v>144.0038146972656</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17124,7 +17124,7 @@
         <v>14150.5</v>
       </c>
       <c r="B2093">
-        <v>137.6724243164062</v>
+        <v>144.0038146972656</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17132,7 +17132,7 @@
         <v>14151</v>
       </c>
       <c r="B2094">
-        <v>137.4991149902344</v>
+        <v>143.9477996826172</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17140,7 +17140,7 @@
         <v>14151.5</v>
       </c>
       <c r="B2095">
-        <v>137.4991149902344</v>
+        <v>143.9477996826172</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -17148,7 +17148,7 @@
         <v>14152</v>
       </c>
       <c r="B2096">
-        <v>137.6724243164062</v>
+        <v>144.0038146972656</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17156,7 +17156,7 @@
         <v>14152.5</v>
       </c>
       <c r="B2097">
-        <v>137.6724243164062</v>
+        <v>144.0038146972656</v>
       </c>
     </row>
     <row r="2098" spans="1:2">
@@ -17164,7 +17164,7 @@
         <v>14153</v>
       </c>
       <c r="B2098">
-        <v>137.7599487304688</v>
+        <v>144.2046203613281</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17172,7 +17172,7 @@
         <v>14153.5</v>
       </c>
       <c r="B2099">
-        <v>137.7599487304688</v>
+        <v>143.4215393066406</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17180,7 +17180,7 @@
         <v>14154</v>
       </c>
       <c r="B2100">
-        <v>139.1845092773438</v>
+        <v>143.4215393066406</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17188,7 +17188,7 @@
         <v>14154.5</v>
       </c>
       <c r="B2101">
-        <v>140.6891784667969</v>
+        <v>141.6808776855469</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17196,7 +17196,7 @@
         <v>14155</v>
       </c>
       <c r="B2102">
-        <v>135.8414306640625</v>
+        <v>136.8331298828125</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17204,7 +17204,7 @@
         <v>14155.5</v>
       </c>
       <c r="B2103">
-        <v>137.4210662841797</v>
+        <v>141.7705841064453</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17212,7 +17212,7 @@
         <v>14156</v>
       </c>
       <c r="B2104">
-        <v>143.0775146484375</v>
+        <v>140.2405242919922</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17220,7 +17220,7 @@
         <v>14156.5</v>
       </c>
       <c r="B2105">
-        <v>143.0775146484375</v>
+        <v>140.2405242919922</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17228,7 +17228,7 @@
         <v>14157</v>
       </c>
       <c r="B2106">
-        <v>137.7659301757812</v>
+        <v>140.2405242919922</v>
       </c>
     </row>
     <row r="2107" spans="1:2">
@@ -17236,7 +17236,7 @@
         <v>14157.5</v>
       </c>
       <c r="B2107">
-        <v>134.2377319335938</v>
+        <v>128.4344024658203</v>
       </c>
     </row>
     <row r="2108" spans="1:2">
@@ -17244,7 +17244,7 @@
         <v>14158</v>
       </c>
       <c r="B2108">
-        <v>137.7291412353516</v>
+        <v>135.2302093505859</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
@@ -17252,7 +17252,7 @@
         <v>14158.5</v>
       </c>
       <c r="B2109">
-        <v>142.9435272216797</v>
+        <v>140.4445953369141</v>
       </c>
     </row>
     <row r="2110" spans="1:2">
@@ -17260,7 +17260,7 @@
         <v>14159</v>
       </c>
       <c r="B2110">
-        <v>141.5189666748047</v>
+        <v>140.4445953369141</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17268,7 +17268,7 @@
         <v>14159.5</v>
       </c>
       <c r="B2111">
-        <v>141.5271301269531</v>
+        <v>134.7835540771484</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17276,7 +17276,7 @@
         <v>14160</v>
       </c>
       <c r="B2112">
-        <v>141.5271301269531</v>
+        <v>134.7835540771484</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17284,7 +17284,7 @@
         <v>14160.5</v>
       </c>
       <c r="B2113">
-        <v>141.5271301269531</v>
+        <v>134.7835540771484</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17292,7 +17292,7 @@
         <v>14161</v>
       </c>
       <c r="B2114">
-        <v>141.5271301269531</v>
+        <v>134.7835540771484</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17300,7 +17300,7 @@
         <v>14161.5</v>
       </c>
       <c r="B2115">
-        <v>141.5271301269531</v>
+        <v>135.7203826904297</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -17308,7 +17308,7 @@
         <v>14162</v>
       </c>
       <c r="B2116">
-        <v>141.6927337646484</v>
+        <v>141.7142944335938</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17316,7 +17316,7 @@
         <v>14162.5</v>
       </c>
       <c r="B2117">
-        <v>141.6927337646484</v>
+        <v>141.7142944335938</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17324,7 +17324,7 @@
         <v>14163</v>
       </c>
       <c r="B2118">
-        <v>140.2681732177734</v>
+        <v>142.4973754882812</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17332,7 +17332,7 @@
         <v>14163.5</v>
       </c>
       <c r="B2119">
-        <v>140.2681732177734</v>
+        <v>142.4973754882812</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17340,7 +17340,7 @@
         <v>14164</v>
       </c>
       <c r="B2120">
-        <v>140.2681732177734</v>
+        <v>142.4973754882812</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17348,7 +17348,7 @@
         <v>14164.5</v>
       </c>
       <c r="B2121">
-        <v>140.2681732177734</v>
+        <v>142.4973754882812</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17356,7 +17356,7 @@
         <v>14165</v>
       </c>
       <c r="B2122">
-        <v>140.2681732177734</v>
+        <v>142.4973754882812</v>
       </c>
     </row>
     <row r="2123" spans="1:2">
@@ -17364,7 +17364,7 @@
         <v>14165.5</v>
       </c>
       <c r="B2123">
-        <v>140.2681732177734</v>
+        <v>142.4973754882812</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17372,7 +17372,7 @@
         <v>14166</v>
       </c>
       <c r="B2124">
-        <v>143.9811248779297</v>
+        <v>145.42724609375</v>
       </c>
     </row>
     <row r="2125" spans="1:2">
@@ -17380,7 +17380,7 @@
         <v>14166.5</v>
       </c>
       <c r="B2125">
-        <v>145.4056854248047</v>
+        <v>145.42724609375</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17388,7 +17388,7 @@
         <v>14167</v>
       </c>
       <c r="B2126">
-        <v>146.9103546142578</v>
+        <v>143.6865844726562</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17396,7 +17396,7 @@
         <v>14167.5</v>
       </c>
       <c r="B2127">
-        <v>146.9103546142578</v>
+        <v>143.6865844726562</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17404,7 +17404,7 @@
         <v>14168</v>
       </c>
       <c r="B2128">
-        <v>145.4056854248047</v>
+        <v>145.42724609375</v>
       </c>
     </row>
     <row r="2129" spans="1:2">
@@ -17412,7 +17412,7 @@
         <v>14168.5</v>
       </c>
       <c r="B2129">
-        <v>143.8077850341797</v>
+        <v>146.1543121337891</v>
       </c>
     </row>
     <row r="2130" spans="1:2">
@@ -17420,7 +17420,7 @@
         <v>14169</v>
       </c>
       <c r="B2130">
-        <v>140.1072082519531</v>
+        <v>146.9599761962891</v>
       </c>
     </row>
     <row r="2131" spans="1:2">
@@ -17428,7 +17428,7 @@
         <v>14169.5</v>
       </c>
       <c r="B2131">
-        <v>141.4291534423828</v>
+        <v>146.0314331054688</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17436,7 +17436,7 @@
         <v>14170</v>
       </c>
       <c r="B2132">
-        <v>143.9811248779297</v>
+        <v>146.2103271484375</v>
       </c>
     </row>
     <row r="2133" spans="1:2">
@@ -17444,7 +17444,7 @@
         <v>14170.5</v>
       </c>
       <c r="B2133">
-        <v>143.9811248779297</v>
+        <v>146.2103271484375</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17452,7 +17452,7 @@
         <v>14171</v>
       </c>
       <c r="B2134">
-        <v>143.9811248779297</v>
+        <v>146.2103271484375</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17460,7 +17460,7 @@
         <v>14171.5</v>
       </c>
       <c r="B2135">
-        <v>143.8077850341797</v>
+        <v>146.1543121337891</v>
       </c>
     </row>
     <row r="2136" spans="1:2">
@@ -17468,7 +17468,7 @@
         <v>14172</v>
       </c>
       <c r="B2136">
-        <v>143.8077850341797</v>
+        <v>146.1543121337891</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17476,7 +17476,7 @@
         <v>14172.5</v>
       </c>
       <c r="B2137">
-        <v>143.8077850341797</v>
+        <v>146.1543121337891</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17484,7 +17484,7 @@
         <v>14173</v>
       </c>
       <c r="B2138">
-        <v>143.8077850341797</v>
+        <v>146.1543121337891</v>
       </c>
     </row>
     <row r="2139" spans="1:2">
@@ -17492,7 +17492,7 @@
         <v>14173.5</v>
       </c>
       <c r="B2139">
-        <v>143.9811248779297</v>
+        <v>146.2103271484375</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17500,7 +17500,7 @@
         <v>14174</v>
       </c>
       <c r="B2140">
-        <v>143.9811248779297</v>
+        <v>146.2103271484375</v>
       </c>
     </row>
     <row r="2141" spans="1:2">
@@ -17508,7 +17508,7 @@
         <v>14174.5</v>
       </c>
       <c r="B2141">
-        <v>143.9811248779297</v>
+        <v>145.4292907714844</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17516,7 +17516,7 @@
         <v>14175</v>
       </c>
       <c r="B2142">
-        <v>141.4562530517578</v>
+        <v>144.6462097167969</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17524,7 +17524,7 @@
         <v>14175.5</v>
       </c>
       <c r="B2143">
-        <v>140.3585815429688</v>
+        <v>145.4292907714844</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -17532,7 +17532,7 @@
         <v>14176</v>
       </c>
       <c r="B2144">
-        <v>142.9934997558594</v>
+        <v>145.8716735839844</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17540,7 +17540,7 @@
         <v>14176.5</v>
       </c>
       <c r="B2145">
-        <v>142.9934997558594</v>
+        <v>145.8716735839844</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17548,7 +17548,7 @@
         <v>14177</v>
       </c>
       <c r="B2146">
-        <v>142.9934997558594</v>
+        <v>145.8716735839844</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17556,7 +17556,7 @@
         <v>14177.5</v>
       </c>
       <c r="B2147">
-        <v>142.9934997558594</v>
+        <v>145.0885925292969</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17564,7 +17564,7 @@
         <v>14178</v>
       </c>
       <c r="B2148">
-        <v>142.9934997558594</v>
+        <v>145.0885925292969</v>
       </c>
     </row>
   </sheetData>
